--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263942.693268224</v>
+        <v>1260567.11202027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9294837.342129074</v>
+        <v>9294837.34212907</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5916045.133701081</v>
+        <v>5916045.13370108</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7851599.154643789</v>
+        <v>7851599.154643788</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="E2" t="n">
-        <v>130.7084367930148</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
         <v>229.9609751381512</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>108.9255184470318</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>167.8681894657054</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>109.4449070220129</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.0801760632872</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>217.3237038688194</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.09545221568158</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>229.9609751381512</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>87.18493168274908</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>22.86316277677823</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>109.2918905836237</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>140.4441204981312</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>180.7930048594845</v>
       </c>
       <c r="F8" t="n">
-        <v>229.9609751381512</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>164.9366423243501</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>74.99394345993448</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>42.26947313636507</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>15.43597368693024</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>200.6696021792518</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>324.3062155051992</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>306.6095160212095</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>83.3756847193645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.1796544354688</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0840228421739</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>60.40121609963937</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>113.0164197014499</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.6776653612616</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5504007061629</v>
       </c>
       <c r="V13" t="n">
-        <v>4.746751258966471</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1609,7 +1609,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>231.5478460353824</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.150207405273</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>118.1156417730486</v>
       </c>
       <c r="H15" t="n">
-        <v>80.23304441644051</v>
+        <v>80.23304441644052</v>
       </c>
       <c r="I15" t="n">
-        <v>23.29212219349734</v>
+        <v>23.29212219349735</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>113.0164197014499</v>
+        <v>11.35725672249109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.746751258966697</v>
+        <v>230.6982824556229</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5504007061629</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>231.5478460353824</v>
+        <v>405.6095954038415</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>118.1156417730486</v>
       </c>
       <c r="H18" t="n">
-        <v>80.23304441644051</v>
+        <v>80.23304441644052</v>
       </c>
       <c r="I18" t="n">
-        <v>23.29212219349734</v>
+        <v>23.29212219349735</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.78615287059955</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>189.6776653612616</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5504007061629</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>248.5188181745044</v>
+        <v>176.0658717627076</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>306.6095160212095</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.1796544354688</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0840228421739</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>118.1156417730486</v>
       </c>
       <c r="H21" t="n">
-        <v>80.23304441644051</v>
+        <v>80.23304441644052</v>
       </c>
       <c r="I21" t="n">
-        <v>23.29212219349734</v>
+        <v>23.29212219349735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.98318653287913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.9239215527843</v>
       </c>
       <c r="T22" t="n">
         <v>230.6982824556229</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>267.5393055632242</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>157.4017863237802</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>166.4854818013673</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H23" t="n">
         <v>306.6095160212095</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.1028238005888</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.63206238693158</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.9239215527843</v>
       </c>
       <c r="T25" t="n">
-        <v>230.6982824556229</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>282.5504007061629</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>127.043858532293</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,10 +2572,10 @@
         <v>407.641385112208</v>
       </c>
       <c r="H26" t="n">
-        <v>306.6095160212095</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.37568471936449</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.1819971136397</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0840228421739</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>160.0248138017883</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.6370926465802</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127.043858532293</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>113.0164197014499</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>94.63206238693158</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.9239215527843</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>230.6982824556229</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5504007061629</v>
+        <v>60.11607763259256</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>24.24713988673768</v>
       </c>
       <c r="V29" t="n">
-        <v>196.5281607083955</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>94.63206238693158</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.9239215527843</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>20.62201141667061</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>54.0881275922237</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>31.19857061196866</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.1796544354688</v>
       </c>
       <c r="T32" t="n">
         <v>215.1819971136397</v>
       </c>
       <c r="U32" t="n">
-        <v>50.30180750344671</v>
+        <v>253.0840228421739</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.953026835409756</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>85.22826109023008</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.6982824556229</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5504007061629</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>67.07595776048593</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>129.6958816683537</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.641385112208</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>94.63206238693158</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.9239215527843</v>
       </c>
       <c r="T37" t="n">
-        <v>230.6982824556229</v>
+        <v>76.22050403585274</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5504007061629</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>186.6600160089039</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>164.5185689940226</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3514,16 +3514,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>35.98355557524274</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.641385112208</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>306.6095160212095</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>83.37568471936449</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0840228421739</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>150.9370274220977</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>113.0164197014499</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>282.5504007061629</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>123.6091755602206</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>3.419220657006931</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.641385112208</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>83.37568471936449</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.24326223049483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.9481225650366</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.3027192915746</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>89.89904446781497</v>
+        <v>189.9239215527843</v>
       </c>
       <c r="T43" t="n">
-        <v>230.6982824556229</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5504007061629</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.641385112208</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>306.6095160212095</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.304177737388718</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>208.4319422985981</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>132.6353002055219</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.0164197014499</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>230.6982824556229</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5504007061629</v>
+        <v>81.21935956673246</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="C2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="D2" t="n">
-        <v>753.3303454936552</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E2" t="n">
-        <v>621.3016214603068</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F2" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G2" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H2" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I2" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M2" t="n">
-        <v>390.7080163066498</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N2" t="n">
-        <v>618.3693816934194</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y2" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.1109263790954</v>
+        <v>547.0488127830397</v>
       </c>
       <c r="C3" t="n">
-        <v>138.4566959391877</v>
+        <v>547.0488127830397</v>
       </c>
       <c r="D3" t="n">
-        <v>138.4566959391877</v>
+        <v>416.95984540452</v>
       </c>
       <c r="E3" t="n">
-        <v>138.4566959391877</v>
+        <v>280.5133545154077</v>
       </c>
       <c r="F3" t="n">
-        <v>138.4566959391877</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G3" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
@@ -4412,16 +4412,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>131.5118602307795</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L3" t="n">
         <v>236.8598043922958</v>
       </c>
       <c r="M3" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N3" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="O3" t="n">
         <v>692.182535165835</v>
@@ -4436,25 +4436,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T3" t="n">
-        <v>650.970404141415</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U3" t="n">
-        <v>440.9072608200568</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V3" t="n">
-        <v>440.9072608200568</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W3" t="n">
-        <v>440.9072608200568</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="X3" t="n">
-        <v>440.9072608200568</v>
+        <v>726.3630297075324</v>
       </c>
       <c r="Y3" t="n">
-        <v>440.9072608200568</v>
+        <v>547.0488127830397</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.77514818495014</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="C4" t="n">
-        <v>48.77514818495014</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="D4" t="n">
-        <v>48.77514818495014</v>
+        <v>685.3925000518352</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77514818495014</v>
+        <v>529.8336879110377</v>
       </c>
       <c r="F4" t="n">
-        <v>48.77514818495014</v>
+        <v>372.5077531240106</v>
       </c>
       <c r="G4" t="n">
-        <v>48.77514818495014</v>
+        <v>204.2536992234562</v>
       </c>
       <c r="H4" t="n">
         <v>48.77514818495014</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T4" t="n">
-        <v>698.550793417971</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U4" t="n">
-        <v>466.2669801471112</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V4" t="n">
-        <v>466.2669801471112</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W4" t="n">
-        <v>233.9831668762514</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X4" t="n">
-        <v>233.9831668762514</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.9831668762514</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>715.3374317791771</v>
+        <v>263.53472571153</v>
       </c>
       <c r="C5" t="n">
-        <v>715.3374317791771</v>
+        <v>263.53472571153</v>
       </c>
       <c r="D5" t="n">
-        <v>715.3374317791771</v>
+        <v>263.53472571153</v>
       </c>
       <c r="E5" t="n">
-        <v>483.0536185083173</v>
+        <v>263.53472571153</v>
       </c>
       <c r="F5" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
         <v>18.39687801105209</v>
@@ -4573,19 +4573,19 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="M5" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="N5" t="n">
         <v>618.3693816934194</v>
       </c>
-      <c r="M5" t="n">
-        <v>846.030747080189</v>
-      </c>
-      <c r="N5" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="O5" t="n">
-        <v>919.8439005526046</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4609,10 +4609,10 @@
         <v>715.3374317791771</v>
       </c>
       <c r="X5" t="n">
-        <v>715.3374317791771</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="Y5" t="n">
-        <v>715.3374317791771</v>
+        <v>483.0536185083173</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242.9089564584968</v>
+        <v>555.6463846467274</v>
       </c>
       <c r="C6" t="n">
-        <v>242.9089564584968</v>
+        <v>404.9921542068196</v>
       </c>
       <c r="D6" t="n">
-        <v>242.9089564584968</v>
+        <v>274.9031868282999</v>
       </c>
       <c r="E6" t="n">
-        <v>106.4624655693845</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="F6" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G6" t="n">
         <v>18.39687801105209</v>
@@ -4649,16 +4649,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N6" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O6" t="n">
         <v>692.182535165835</v>
@@ -4670,28 +4670,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="T6" t="n">
-        <v>584.0123685494465</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="U6" t="n">
-        <v>584.0123685494465</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="V6" t="n">
-        <v>584.0123685494465</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="W6" t="n">
-        <v>584.0123685494465</v>
+        <v>896.7497967376771</v>
       </c>
       <c r="X6" t="n">
-        <v>394.7052908994581</v>
+        <v>707.4427190876887</v>
       </c>
       <c r="Y6" t="n">
-        <v>394.7052908994581</v>
+        <v>707.4427190876887</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.9802661189609</v>
+        <v>685.5470621108143</v>
       </c>
       <c r="C7" t="n">
-        <v>48.77514818495014</v>
+        <v>685.5470621108143</v>
       </c>
       <c r="D7" t="n">
-        <v>48.77514818495014</v>
+        <v>529.9139490133291</v>
       </c>
       <c r="E7" t="n">
-        <v>48.77514818495014</v>
+        <v>374.3551368725317</v>
       </c>
       <c r="F7" t="n">
-        <v>48.77514818495014</v>
+        <v>217.0292020855046</v>
       </c>
       <c r="G7" t="n">
         <v>48.77514818495014</v>
@@ -4752,25 +4752,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T7" t="n">
-        <v>360.8430140968712</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U7" t="n">
-        <v>218.9802661189609</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V7" t="n">
-        <v>218.9802661189609</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W7" t="n">
-        <v>218.9802661189609</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9802661189609</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.9802661189609</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417.283360296407</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C8" t="n">
-        <v>417.283360296407</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D8" t="n">
-        <v>417.283360296407</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E8" t="n">
-        <v>417.283360296407</v>
+        <v>40.37326391226304</v>
       </c>
       <c r="F8" t="n">
-        <v>184.9995470255472</v>
+        <v>27.51922948264486</v>
       </c>
       <c r="G8" t="n">
         <v>18.39687801105209</v>
@@ -4807,19 +4807,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L8" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="M8" t="n">
-        <v>473.7196087845913</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N8" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O8" t="n">
-        <v>701.380974171361</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4828,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y8" t="n">
-        <v>649.5671735672668</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667.1086307111752</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="C9" t="n">
-        <v>667.1086307111752</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="D9" t="n">
-        <v>537.0196633326556</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="E9" t="n">
         <v>400.5731724435433</v>
@@ -4886,13 +4886,13 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L9" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M9" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N9" t="n">
         <v>464.5211697790654</v>
@@ -4907,28 +4907,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>844.0924425122668</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T9" t="n">
-        <v>667.1086307111752</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U9" t="n">
-        <v>667.1086307111752</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V9" t="n">
-        <v>667.1086307111752</v>
+        <v>673.3868558217363</v>
       </c>
       <c r="W9" t="n">
-        <v>667.1086307111752</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="X9" t="n">
-        <v>667.1086307111752</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="Y9" t="n">
-        <v>667.1086307111752</v>
+        <v>400.5731724435433</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>502.3520685904435</v>
+        <v>531.9393140034732</v>
       </c>
       <c r="C10" t="n">
-        <v>502.3520685904435</v>
+        <v>361.7341960694624</v>
       </c>
       <c r="D10" t="n">
-        <v>486.7601759773827</v>
+        <v>206.1010829719772</v>
       </c>
       <c r="E10" t="n">
-        <v>331.2013638365852</v>
+        <v>206.1010829719772</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8754290495581</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8754290495581</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H10" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J10" t="n">
         <v>18.39687801105209</v>
@@ -4995,19 +4995,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V10" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W10" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X10" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.5600872817448</v>
+        <v>717.1473326947745</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>790.2627117381128</v>
+        <v>1249.780622563844</v>
       </c>
       <c r="C11" t="n">
-        <v>790.2627117381128</v>
+        <v>856.6051210667742</v>
       </c>
       <c r="D11" t="n">
-        <v>790.2627117381128</v>
+        <v>856.6051210667742</v>
       </c>
       <c r="E11" t="n">
-        <v>790.2627117381128</v>
+        <v>856.6051210667742</v>
       </c>
       <c r="F11" t="n">
-        <v>373.3682732680905</v>
+        <v>439.710682596752</v>
       </c>
       <c r="G11" t="n">
-        <v>45.78623740425298</v>
+        <v>439.710682596752</v>
       </c>
       <c r="H11" t="n">
-        <v>45.78623740425298</v>
+        <v>130.0041007571464</v>
       </c>
       <c r="I11" t="n">
         <v>45.78623740425298</v>
       </c>
       <c r="J11" t="n">
-        <v>46.05635773641486</v>
+        <v>307.2091702081656</v>
       </c>
       <c r="K11" t="n">
-        <v>79.4412349527379</v>
+        <v>841.2042225993955</v>
       </c>
       <c r="L11" t="n">
-        <v>646.0459228303685</v>
+        <v>906.6072600866853</v>
       </c>
       <c r="M11" t="n">
-        <v>1212.650610707999</v>
+        <v>999.9658754461525</v>
       </c>
       <c r="N11" t="n">
-        <v>1779.25529858563</v>
+        <v>1097.834106251805</v>
       </c>
       <c r="O11" t="n">
-        <v>2234.739897064799</v>
+        <v>1360.666105694399</v>
       </c>
       <c r="P11" t="n">
-        <v>2283.789754955798</v>
+        <v>1906.701888485436</v>
       </c>
       <c r="Q11" t="n">
-        <v>2289.311870212649</v>
+        <v>2240.123275317444</v>
       </c>
       <c r="R11" t="n">
         <v>2289.311870212649</v>
       </c>
       <c r="S11" t="n">
-        <v>2289.311870212649</v>
+        <v>2154.786966742478</v>
       </c>
       <c r="T11" t="n">
-        <v>2289.311870212649</v>
+        <v>1937.431414102438</v>
       </c>
       <c r="U11" t="n">
-        <v>2289.311870212649</v>
+        <v>1681.790986989131</v>
       </c>
       <c r="V11" t="n">
-        <v>1947.205060916167</v>
+        <v>1681.790986989131</v>
       </c>
       <c r="W11" t="n">
-        <v>1576.206025884455</v>
+        <v>1310.791951957419</v>
       </c>
       <c r="X11" t="n">
-        <v>1186.753420817512</v>
+        <v>1249.780622563844</v>
       </c>
       <c r="Y11" t="n">
-        <v>790.2627117381128</v>
+        <v>1249.780622563844</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>45.78623740425298</v>
       </c>
       <c r="J12" t="n">
-        <v>45.78623740425298</v>
+        <v>228.4505136812612</v>
       </c>
       <c r="K12" t="n">
-        <v>484.3962046589454</v>
+        <v>667.0604809359536</v>
       </c>
       <c r="L12" t="n">
-        <v>1051.000892536576</v>
+        <v>737.7372262113477</v>
       </c>
       <c r="M12" t="n">
-        <v>1146.059284978223</v>
+        <v>832.7956186529951</v>
       </c>
       <c r="N12" t="n">
-        <v>1252.999209407962</v>
+        <v>1399.400306530626</v>
       </c>
       <c r="O12" t="n">
-        <v>1716.965698939663</v>
+        <v>1482.78657809462</v>
       </c>
       <c r="P12" t="n">
-        <v>2263.157940162717</v>
+        <v>1938.714576983472</v>
       </c>
       <c r="Q12" t="n">
         <v>2267.047574125062</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1116.171636469338</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="C13" t="n">
-        <v>945.9665185353274</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="D13" t="n">
-        <v>790.3334054378422</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="E13" t="n">
-        <v>634.7745932970447</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="F13" t="n">
-        <v>477.4486585100177</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="G13" t="n">
-        <v>309.824292282708</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9442371026872</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="I13" t="n">
         <v>45.78623740425298</v>
       </c>
       <c r="J13" t="n">
-        <v>59.64548682710173</v>
+        <v>59.64548682710175</v>
       </c>
       <c r="K13" t="n">
         <v>213.1829373518897</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0649750011506</v>
+        <v>469.0649750011507</v>
       </c>
       <c r="M13" t="n">
-        <v>752.0987008777706</v>
+        <v>752.0987008777709</v>
       </c>
       <c r="N13" t="n">
         <v>1029.730170408206</v>
       </c>
       <c r="O13" t="n">
-        <v>1279.667258387474</v>
+        <v>1279.667258387475</v>
       </c>
       <c r="P13" t="n">
         <v>1474.185744575251</v>
       </c>
       <c r="Q13" t="n">
-        <v>1529.286414585376</v>
+        <v>1529.286414585377</v>
       </c>
       <c r="R13" t="n">
-        <v>1529.286414585376</v>
+        <v>1529.286414585377</v>
       </c>
       <c r="S13" t="n">
-        <v>1529.286414585376</v>
+        <v>1337.692813210365</v>
       </c>
       <c r="T13" t="n">
-        <v>1529.286414585376</v>
+        <v>1337.692813210365</v>
       </c>
       <c r="U13" t="n">
-        <v>1529.286414585376</v>
+        <v>1052.288368052625</v>
       </c>
       <c r="V13" t="n">
-        <v>1524.491716343996</v>
+        <v>786.3090228734488</v>
       </c>
       <c r="W13" t="n">
-        <v>1524.491716343996</v>
+        <v>502.9786208046265</v>
       </c>
       <c r="X13" t="n">
-        <v>1524.491716343996</v>
+        <v>268.8982985876096</v>
       </c>
       <c r="Y13" t="n">
-        <v>1301.379655160639</v>
+        <v>45.78623740425298</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1492.326415421853</v>
+        <v>1277.023175618547</v>
       </c>
       <c r="C14" t="n">
-        <v>1099.150913924784</v>
+        <v>1277.023175618547</v>
       </c>
       <c r="D14" t="n">
-        <v>1099.150913924784</v>
+        <v>1277.023175618547</v>
       </c>
       <c r="E14" t="n">
-        <v>696.5673890413282</v>
+        <v>874.4396507350914</v>
       </c>
       <c r="F14" t="n">
-        <v>279.6729505713059</v>
+        <v>457.5452122650692</v>
       </c>
       <c r="G14" t="n">
         <v>45.78623740425298</v>
@@ -5278,28 +5278,28 @@
         <v>45.78623740425298</v>
       </c>
       <c r="J14" t="n">
-        <v>46.0563577364149</v>
+        <v>307.2091702081656</v>
       </c>
       <c r="K14" t="n">
-        <v>580.0514101276449</v>
+        <v>841.2042225993955</v>
       </c>
       <c r="L14" t="n">
-        <v>1146.656098005275</v>
+        <v>906.6072600866853</v>
       </c>
       <c r="M14" t="n">
-        <v>1240.014713364743</v>
+        <v>999.9658754461525</v>
       </c>
       <c r="N14" t="n">
-        <v>1806.619401242373</v>
+        <v>1171.14928428713</v>
       </c>
       <c r="O14" t="n">
-        <v>2185.551302169594</v>
+        <v>1737.753972164761</v>
       </c>
       <c r="P14" t="n">
-        <v>2234.601160060593</v>
+        <v>2283.789754955798</v>
       </c>
       <c r="Q14" t="n">
-        <v>2240.123275317444</v>
+        <v>2289.311870212649</v>
       </c>
       <c r="R14" t="n">
         <v>2289.311870212649</v>
@@ -5308,22 +5308,22 @@
         <v>2289.311870212649</v>
       </c>
       <c r="T14" t="n">
-        <v>2289.311870212649</v>
+        <v>2074.008630409343</v>
       </c>
       <c r="U14" t="n">
-        <v>2289.311870212649</v>
+        <v>2074.008630409343</v>
       </c>
       <c r="V14" t="n">
-        <v>2289.311870212649</v>
+        <v>2074.008630409343</v>
       </c>
       <c r="W14" t="n">
-        <v>2289.311870212649</v>
+        <v>2074.008630409343</v>
       </c>
       <c r="X14" t="n">
-        <v>2289.311870212649</v>
+        <v>2074.008630409343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1892.82116113325</v>
+        <v>1677.517921329944</v>
       </c>
     </row>
     <row r="15">
@@ -5342,13 +5342,13 @@
         <v>530.5441388374925</v>
       </c>
       <c r="E15" t="n">
-        <v>394.0976479483802</v>
+        <v>394.0976479483803</v>
       </c>
       <c r="F15" t="n">
-        <v>269.665841831512</v>
+        <v>269.6658418315121</v>
       </c>
       <c r="G15" t="n">
-        <v>150.3571127678265</v>
+        <v>150.3571127678266</v>
       </c>
       <c r="H15" t="n">
         <v>69.3136335593008</v>
@@ -5360,19 +5360,19 @@
         <v>45.78623740425298</v>
       </c>
       <c r="K15" t="n">
-        <v>484.3962046589454</v>
+        <v>75.95609261671893</v>
       </c>
       <c r="L15" t="n">
-        <v>1051.000892536576</v>
+        <v>642.5607804943495</v>
       </c>
       <c r="M15" t="n">
-        <v>1146.059284978224</v>
+        <v>737.619172935997</v>
       </c>
       <c r="N15" t="n">
-        <v>1664.459207037137</v>
+        <v>1172.625307149618</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.063894914768</v>
+        <v>1739.229995027249</v>
       </c>
       <c r="P15" t="n">
         <v>2285.422236250303</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1116.171636469338</v>
+        <v>227.4633318256285</v>
       </c>
       <c r="C16" t="n">
-        <v>945.9665185353274</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="D16" t="n">
-        <v>790.3334054378422</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="E16" t="n">
-        <v>634.7745932970447</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="F16" t="n">
-        <v>477.4486585100177</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="G16" t="n">
-        <v>309.824292282708</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9442371026872</v>
+        <v>57.25821389161771</v>
       </c>
       <c r="I16" t="n">
         <v>45.78623740425298</v>
@@ -5466,22 +5466,22 @@
         <v>1529.286414585377</v>
       </c>
       <c r="T16" t="n">
-        <v>1524.491716343996</v>
+        <v>1296.257846448384</v>
       </c>
       <c r="U16" t="n">
-        <v>1524.491716343996</v>
+        <v>1010.853401290644</v>
       </c>
       <c r="V16" t="n">
-        <v>1524.491716343996</v>
+        <v>744.8740561114678</v>
       </c>
       <c r="W16" t="n">
-        <v>1524.491716343996</v>
+        <v>461.5436540426454</v>
       </c>
       <c r="X16" t="n">
-        <v>1524.491716343996</v>
+        <v>227.4633318256285</v>
       </c>
       <c r="Y16" t="n">
-        <v>1301.379655160639</v>
+        <v>227.4633318256285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1492.326415421853</v>
+        <v>1274.970862781813</v>
       </c>
       <c r="C17" t="n">
-        <v>1099.150913924784</v>
+        <v>1274.970862781813</v>
       </c>
       <c r="D17" t="n">
-        <v>1099.150913924784</v>
+        <v>1274.970862781813</v>
       </c>
       <c r="E17" t="n">
-        <v>696.5673890413282</v>
+        <v>872.3873378983576</v>
       </c>
       <c r="F17" t="n">
-        <v>279.6729505713059</v>
+        <v>455.4928994283354</v>
       </c>
       <c r="G17" t="n">
         <v>45.78623740425298</v>
@@ -5515,25 +5515,25 @@
         <v>45.78623740425298</v>
       </c>
       <c r="J17" t="n">
-        <v>46.0563577364149</v>
+        <v>307.2091702081656</v>
       </c>
       <c r="K17" t="n">
-        <v>79.441234952738</v>
+        <v>340.5940474244887</v>
       </c>
       <c r="L17" t="n">
-        <v>646.0459228303686</v>
+        <v>907.1987353021193</v>
       </c>
       <c r="M17" t="n">
-        <v>1212.650610707999</v>
+        <v>1473.80342317975</v>
       </c>
       <c r="N17" t="n">
-        <v>1779.25529858563</v>
+        <v>2040.40811105738</v>
       </c>
       <c r="O17" t="n">
-        <v>2185.551302169594</v>
+        <v>2124.154386380024</v>
       </c>
       <c r="P17" t="n">
-        <v>2234.601160060593</v>
+        <v>2173.204244271024</v>
       </c>
       <c r="Q17" t="n">
         <v>2240.123275317444</v>
@@ -5545,22 +5545,22 @@
         <v>2289.311870212649</v>
       </c>
       <c r="T17" t="n">
-        <v>2289.311870212649</v>
+        <v>2071.956317572609</v>
       </c>
       <c r="U17" t="n">
-        <v>2289.311870212649</v>
+        <v>2071.956317572609</v>
       </c>
       <c r="V17" t="n">
-        <v>2289.311870212649</v>
+        <v>2071.956317572609</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.311870212649</v>
+        <v>2071.956317572609</v>
       </c>
       <c r="X17" t="n">
-        <v>2289.311870212649</v>
+        <v>2071.956317572609</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.82116113325</v>
+        <v>1675.46560849321</v>
       </c>
     </row>
     <row r="18">
@@ -5579,13 +5579,13 @@
         <v>530.5441388374925</v>
       </c>
       <c r="E18" t="n">
-        <v>394.0976479483802</v>
+        <v>394.0976479483803</v>
       </c>
       <c r="F18" t="n">
-        <v>269.665841831512</v>
+        <v>269.6658418315121</v>
       </c>
       <c r="G18" t="n">
-        <v>150.3571127678265</v>
+        <v>150.3571127678266</v>
       </c>
       <c r="H18" t="n">
         <v>69.3136335593008</v>
@@ -5597,25 +5597,25 @@
         <v>45.78623740425298</v>
       </c>
       <c r="K18" t="n">
-        <v>75.95609261671895</v>
+        <v>404.0223024006015</v>
       </c>
       <c r="L18" t="n">
-        <v>642.5607804943495</v>
+        <v>970.626990278232</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.16546837198</v>
+        <v>1065.685382719879</v>
       </c>
       <c r="N18" t="n">
-        <v>1316.105392801719</v>
+        <v>1172.625307149618</v>
       </c>
       <c r="O18" t="n">
-        <v>1882.71008067935</v>
+        <v>1739.229995027249</v>
       </c>
       <c r="P18" t="n">
-        <v>2263.157940162716</v>
+        <v>2285.422236250303</v>
       </c>
       <c r="Q18" t="n">
-        <v>2267.047574125062</v>
+        <v>2289.311870212649</v>
       </c>
       <c r="R18" t="n">
         <v>2289.311870212649</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.1832805765465</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="C19" t="n">
-        <v>356.9781626425357</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="D19" t="n">
-        <v>201.3450495450505</v>
+        <v>45.78623740425298</v>
       </c>
       <c r="E19" t="n">
         <v>45.78623740425298</v>
@@ -5697,28 +5697,28 @@
         <v>1529.286414585377</v>
       </c>
       <c r="R19" t="n">
-        <v>1435.563027847397</v>
+        <v>1529.286414585377</v>
       </c>
       <c r="S19" t="n">
-        <v>1435.563027847397</v>
+        <v>1529.286414585377</v>
       </c>
       <c r="T19" t="n">
-        <v>1435.563027847397</v>
+        <v>1337.692813210365</v>
       </c>
       <c r="U19" t="n">
-        <v>1435.563027847397</v>
+        <v>1052.288368052625</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.583682668221</v>
+        <v>786.3090228734488</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.583682668221</v>
+        <v>502.9786208046265</v>
       </c>
       <c r="X19" t="n">
-        <v>935.5033604512045</v>
+        <v>268.8982985876096</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.3912992678478</v>
+        <v>45.78623740425298</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1492.326415421853</v>
+        <v>950.2315726257067</v>
       </c>
       <c r="C20" t="n">
-        <v>1099.150913924784</v>
+        <v>950.2315726257067</v>
       </c>
       <c r="D20" t="n">
-        <v>713.7097851414514</v>
+        <v>950.2315726257067</v>
       </c>
       <c r="E20" t="n">
-        <v>713.7097851414514</v>
+        <v>950.2315726257067</v>
       </c>
       <c r="F20" t="n">
-        <v>296.8153466714292</v>
+        <v>533.3371341556845</v>
       </c>
       <c r="G20" t="n">
-        <v>45.78623740425298</v>
+        <v>355.4928192438585</v>
       </c>
       <c r="H20" t="n">
         <v>45.78623740425298</v>
@@ -5752,25 +5752,25 @@
         <v>45.78623740425298</v>
       </c>
       <c r="J20" t="n">
-        <v>46.0563577364149</v>
+        <v>307.2091702081656</v>
       </c>
       <c r="K20" t="n">
-        <v>79.441234952738</v>
+        <v>841.2042225993955</v>
       </c>
       <c r="L20" t="n">
-        <v>646.0459228303686</v>
+        <v>906.6072600866853</v>
       </c>
       <c r="M20" t="n">
-        <v>1212.650610707999</v>
+        <v>999.9658754461525</v>
       </c>
       <c r="N20" t="n">
-        <v>1779.25529858563</v>
+        <v>1097.834106251805</v>
       </c>
       <c r="O20" t="n">
-        <v>2234.739897064799</v>
+        <v>1409.854700589604</v>
       </c>
       <c r="P20" t="n">
-        <v>2283.789754955798</v>
+        <v>1955.890483380641</v>
       </c>
       <c r="Q20" t="n">
         <v>2289.311870212649</v>
@@ -5779,25 +5779,25 @@
         <v>2289.311870212649</v>
       </c>
       <c r="S20" t="n">
-        <v>2289.311870212649</v>
+        <v>2154.786966742478</v>
       </c>
       <c r="T20" t="n">
-        <v>2289.311870212649</v>
+        <v>1937.431414102438</v>
       </c>
       <c r="U20" t="n">
-        <v>2289.311870212649</v>
+        <v>1681.790986989131</v>
       </c>
       <c r="V20" t="n">
-        <v>2289.311870212649</v>
+        <v>1339.68417769265</v>
       </c>
       <c r="W20" t="n">
-        <v>2289.311870212649</v>
+        <v>1339.68417769265</v>
       </c>
       <c r="X20" t="n">
-        <v>2289.311870212649</v>
+        <v>950.2315726257067</v>
       </c>
       <c r="Y20" t="n">
-        <v>1892.82116113325</v>
+        <v>950.2315726257067</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>811.2873366559199</v>
+        <v>811.2873366559202</v>
       </c>
       <c r="C21" t="n">
-        <v>660.6331062160122</v>
+        <v>660.6331062160123</v>
       </c>
       <c r="D21" t="n">
-        <v>530.5441388374925</v>
+        <v>530.5441388374927</v>
       </c>
       <c r="E21" t="n">
-        <v>394.0976479483802</v>
+        <v>394.0976479483804</v>
       </c>
       <c r="F21" t="n">
-        <v>269.665841831512</v>
+        <v>269.6658418315121</v>
       </c>
       <c r="G21" t="n">
-        <v>150.3571127678265</v>
+        <v>150.3571127678267</v>
       </c>
       <c r="H21" t="n">
         <v>69.3136335593008</v>
@@ -5834,22 +5834,22 @@
         <v>45.78623740425298</v>
       </c>
       <c r="K21" t="n">
-        <v>75.95609261671895</v>
+        <v>415.6944232782546</v>
       </c>
       <c r="L21" t="n">
-        <v>642.5607804943495</v>
+        <v>982.2991111558852</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.16546837198</v>
+        <v>1548.903799033516</v>
       </c>
       <c r="N21" t="n">
-        <v>1316.105392801719</v>
+        <v>1655.843723463255</v>
       </c>
       <c r="O21" t="n">
-        <v>1882.71008067935</v>
+        <v>1739.22999502725</v>
       </c>
       <c r="P21" t="n">
-        <v>2285.422236250303</v>
+        <v>2285.422236250304</v>
       </c>
       <c r="Q21" t="n">
         <v>2289.311870212649</v>
@@ -5858,25 +5858,25 @@
         <v>2289.311870212649</v>
       </c>
       <c r="S21" t="n">
-        <v>2168.332339344737</v>
+        <v>2168.332339344738</v>
       </c>
       <c r="T21" t="n">
-        <v>1994.375942747284</v>
+        <v>1994.375942747285</v>
       </c>
       <c r="U21" t="n">
-        <v>1784.362213167008</v>
+        <v>1784.362213167009</v>
       </c>
       <c r="V21" t="n">
-        <v>1561.822211538075</v>
+        <v>1561.822211538076</v>
       </c>
       <c r="W21" t="n">
-        <v>1331.704965671362</v>
+        <v>1331.704965671363</v>
       </c>
       <c r="X21" t="n">
         <v>1142.397888021374</v>
       </c>
       <c r="Y21" t="n">
-        <v>963.0836710968813</v>
+        <v>963.0836710968815</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.6157215655734</v>
+        <v>677.0633357565673</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4106036315627</v>
+        <v>506.8582178225565</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4106036315627</v>
+        <v>351.2251047250713</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4106036315627</v>
+        <v>195.6662925842738</v>
       </c>
       <c r="F22" t="n">
-        <v>213.4106036315627</v>
+        <v>195.6662925842738</v>
       </c>
       <c r="G22" t="n">
-        <v>45.78623740425298</v>
+        <v>195.6662925842738</v>
       </c>
       <c r="H22" t="n">
         <v>45.78623740425298</v>
@@ -5934,28 +5934,28 @@
         <v>1529.286414585377</v>
       </c>
       <c r="R22" t="n">
-        <v>1529.286414585377</v>
+        <v>1521.222589804691</v>
       </c>
       <c r="S22" t="n">
-        <v>1529.286414585377</v>
+        <v>1329.380244801878</v>
       </c>
       <c r="T22" t="n">
-        <v>1296.257846448384</v>
+        <v>1096.351676664885</v>
       </c>
       <c r="U22" t="n">
-        <v>1296.257846448384</v>
+        <v>1096.351676664885</v>
       </c>
       <c r="V22" t="n">
-        <v>1296.257846448384</v>
+        <v>1096.351676664885</v>
       </c>
       <c r="W22" t="n">
-        <v>1026.016123657248</v>
+        <v>1096.351676664885</v>
       </c>
       <c r="X22" t="n">
-        <v>791.9358014402314</v>
+        <v>862.2713544478686</v>
       </c>
       <c r="Y22" t="n">
-        <v>568.8237402568748</v>
+        <v>862.2713544478686</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1476.819581871927</v>
       </c>
       <c r="E23" t="n">
-        <v>1074.236056988471</v>
+        <v>1317.827878514573</v>
       </c>
       <c r="F23" t="n">
-        <v>657.3416185184491</v>
+        <v>900.9334400445507</v>
       </c>
       <c r="G23" t="n">
         <v>489.1744651837346</v>
@@ -6068,25 +6068,25 @@
         <v>95.25001999123559</v>
       </c>
       <c r="J24" t="n">
-        <v>95.25001999123559</v>
+        <v>277.9142962682438</v>
       </c>
       <c r="K24" t="n">
-        <v>125.4198752037016</v>
+        <v>535.4632514375485</v>
       </c>
       <c r="L24" t="n">
-        <v>196.0966204790956</v>
+        <v>1178.865825999605</v>
       </c>
       <c r="M24" t="n">
-        <v>1010.389913376243</v>
+        <v>1273.924218441252</v>
       </c>
       <c r="N24" t="n">
-        <v>1857.626200742166</v>
+        <v>1380.864142870991</v>
       </c>
       <c r="O24" t="n">
-        <v>2280.527677501751</v>
+        <v>1464.250414434986</v>
       </c>
       <c r="P24" t="n">
-        <v>2334.886018837286</v>
+        <v>2010.442655658041</v>
       </c>
       <c r="Q24" t="n">
         <v>2338.775652799631</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3279.000822380656</v>
+        <v>878.3913458284501</v>
       </c>
       <c r="C25" t="n">
-        <v>3279.000822380656</v>
+        <v>708.1862278944393</v>
       </c>
       <c r="D25" t="n">
-        <v>3279.000822380656</v>
+        <v>708.1862278944393</v>
       </c>
       <c r="E25" t="n">
-        <v>3279.000822380656</v>
+        <v>552.6274157536418</v>
       </c>
       <c r="F25" t="n">
-        <v>3279.000822380656</v>
+        <v>395.3014809666147</v>
       </c>
       <c r="G25" t="n">
-        <v>3279.000822380656</v>
+        <v>227.6771147393051</v>
       </c>
       <c r="H25" t="n">
-        <v>3279.000822380656</v>
+        <v>95.25001999123559</v>
       </c>
       <c r="I25" t="n">
-        <v>3279.000822380656</v>
+        <v>95.25001999123559</v>
       </c>
       <c r="J25" t="n">
-        <v>3292.860071803505</v>
+        <v>109.1092694140844</v>
       </c>
       <c r="K25" t="n">
-        <v>3446.397522328292</v>
+        <v>262.6467199388724</v>
       </c>
       <c r="L25" t="n">
-        <v>3702.279559977553</v>
+        <v>518.5287575881333</v>
       </c>
       <c r="M25" t="n">
-        <v>3985.313285854174</v>
+        <v>801.5624834647535</v>
       </c>
       <c r="N25" t="n">
-        <v>4262.944755384608</v>
+        <v>1079.193952995189</v>
       </c>
       <c r="O25" t="n">
-        <v>4512.881843363877</v>
+        <v>1329.131040974457</v>
       </c>
       <c r="P25" t="n">
-        <v>4707.400329551654</v>
+        <v>1523.649527162234</v>
       </c>
       <c r="Q25" t="n">
-        <v>4762.500999561779</v>
+        <v>1578.750197172359</v>
       </c>
       <c r="R25" t="n">
-        <v>4666.913057756798</v>
+        <v>1578.750197172359</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.070712753985</v>
+        <v>1386.907852169547</v>
       </c>
       <c r="T25" t="n">
-        <v>4242.042144616993</v>
+        <v>1386.907852169547</v>
       </c>
       <c r="U25" t="n">
-        <v>3956.637699459253</v>
+        <v>1101.503407011807</v>
       </c>
       <c r="V25" t="n">
-        <v>3690.658354280077</v>
+        <v>1101.503407011807</v>
       </c>
       <c r="W25" t="n">
-        <v>3407.327952211255</v>
+        <v>1101.503407011807</v>
       </c>
       <c r="X25" t="n">
-        <v>3279.000822380656</v>
+        <v>1101.503407011807</v>
       </c>
       <c r="Y25" t="n">
-        <v>3279.000822380656</v>
+        <v>878.3913458284501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1608.388638647697</v>
+        <v>2170.924573827772</v>
       </c>
       <c r="C26" t="n">
-        <v>1215.213137150628</v>
+        <v>1777.749072330703</v>
       </c>
       <c r="D26" t="n">
-        <v>1215.213137150628</v>
+        <v>1392.307943547371</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.213137150628</v>
+        <v>989.7244186639153</v>
       </c>
       <c r="F26" t="n">
-        <v>798.3186986806052</v>
+        <v>572.8299801938931</v>
       </c>
       <c r="G26" t="n">
-        <v>386.559723819789</v>
+        <v>161.0710053330769</v>
       </c>
       <c r="H26" t="n">
-        <v>76.85314198018349</v>
+        <v>161.0710053330769</v>
       </c>
       <c r="I26" t="n">
         <v>76.85314198018349</v>
@@ -6238,10 +6238,10 @@
         <v>2109.144648428379</v>
       </c>
       <c r="N26" t="n">
-        <v>2619.245125696459</v>
+        <v>2882.451469295899</v>
       </c>
       <c r="O26" t="n">
-        <v>3291.099200961286</v>
+        <v>3554.305544560727</v>
       </c>
       <c r="P26" t="n">
         <v>3837.134983752323</v>
@@ -6256,22 +6256,22 @@
         <v>3842.657099009175</v>
       </c>
       <c r="T26" t="n">
-        <v>3625.301546369134</v>
+        <v>3842.657099009175</v>
       </c>
       <c r="U26" t="n">
-        <v>3369.661119255828</v>
+        <v>3842.657099009175</v>
       </c>
       <c r="V26" t="n">
-        <v>3027.554309959346</v>
+        <v>3500.550289712693</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.555274927633</v>
+        <v>3129.55125468098</v>
       </c>
       <c r="X26" t="n">
-        <v>2267.10266986069</v>
+        <v>2967.910028618568</v>
       </c>
       <c r="Y26" t="n">
-        <v>2008.883384359094</v>
+        <v>2571.419319539169</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>76.85314198018349</v>
       </c>
       <c r="J27" t="n">
-        <v>76.85314198018349</v>
+        <v>259.5174182571917</v>
       </c>
       <c r="K27" t="n">
-        <v>107.0229971926495</v>
+        <v>698.1273855118841</v>
       </c>
       <c r="L27" t="n">
-        <v>177.6997424680435</v>
+        <v>1138.204651900966</v>
       </c>
       <c r="M27" t="n">
-        <v>991.993035365191</v>
+        <v>1233.263044342613</v>
       </c>
       <c r="N27" t="n">
-        <v>1098.93295979493</v>
+        <v>1340.202968772352</v>
       </c>
       <c r="O27" t="n">
-        <v>1790.600197249906</v>
+        <v>1423.589240336347</v>
       </c>
       <c r="P27" t="n">
-        <v>2316.489140826234</v>
+        <v>1969.781481559402</v>
       </c>
       <c r="Q27" t="n">
-        <v>2320.378774788579</v>
+        <v>2298.114478700992</v>
       </c>
       <c r="R27" t="n">
         <v>2320.378774788579</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2359.156921828051</v>
+        <v>809.4090568839483</v>
       </c>
       <c r="C28" t="n">
-        <v>2359.156921828051</v>
+        <v>809.4090568839483</v>
       </c>
       <c r="D28" t="n">
-        <v>2359.156921828051</v>
+        <v>653.7759437864631</v>
       </c>
       <c r="E28" t="n">
-        <v>2359.156921828051</v>
+        <v>498.2171316456656</v>
       </c>
       <c r="F28" t="n">
-        <v>2359.156921828051</v>
+        <v>340.8911968586385</v>
       </c>
       <c r="G28" t="n">
-        <v>2359.156921828051</v>
+        <v>340.8911968586385</v>
       </c>
       <c r="H28" t="n">
-        <v>2359.156921828051</v>
+        <v>191.0111416786177</v>
       </c>
       <c r="I28" t="n">
-        <v>2359.156921828051</v>
+        <v>76.85314198018349</v>
       </c>
       <c r="J28" t="n">
-        <v>2373.016171250899</v>
+        <v>90.71239140303227</v>
       </c>
       <c r="K28" t="n">
-        <v>2526.553621775687</v>
+        <v>244.2498419278202</v>
       </c>
       <c r="L28" t="n">
-        <v>2782.435659424948</v>
+        <v>500.1318795770812</v>
       </c>
       <c r="M28" t="n">
-        <v>3065.469385301568</v>
+        <v>783.1656054537013</v>
       </c>
       <c r="N28" t="n">
-        <v>3343.100854832003</v>
+        <v>1060.797074984136</v>
       </c>
       <c r="O28" t="n">
-        <v>3593.037942811272</v>
+        <v>1310.734162963405</v>
       </c>
       <c r="P28" t="n">
-        <v>3787.556428999049</v>
+        <v>1505.252649151182</v>
       </c>
       <c r="Q28" t="n">
-        <v>3842.657099009175</v>
+        <v>1560.353319161307</v>
       </c>
       <c r="R28" t="n">
-        <v>3747.069157204193</v>
+        <v>1560.353319161307</v>
       </c>
       <c r="S28" t="n">
-        <v>3555.226812201381</v>
+        <v>1560.353319161307</v>
       </c>
       <c r="T28" t="n">
-        <v>3322.198244064388</v>
+        <v>1327.324751024314</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.793798906648</v>
+        <v>1266.601440284322</v>
       </c>
       <c r="V28" t="n">
-        <v>2770.814453727472</v>
+        <v>1266.601440284322</v>
       </c>
       <c r="W28" t="n">
-        <v>2487.48405165865</v>
+        <v>1266.601440284322</v>
       </c>
       <c r="X28" t="n">
-        <v>2487.48405165865</v>
+        <v>1032.521118067305</v>
       </c>
       <c r="Y28" t="n">
-        <v>2487.48405165865</v>
+        <v>809.4090568839483</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2086.706710474879</v>
+        <v>1701.265581691547</v>
       </c>
       <c r="C29" t="n">
-        <v>1693.53120897781</v>
+        <v>1308.090080194477</v>
       </c>
       <c r="D29" t="n">
         <v>1308.090080194477</v>
@@ -6478,13 +6478,13 @@
         <v>3143.60428176765</v>
       </c>
       <c r="O29" t="n">
-        <v>3241.910606066082</v>
+        <v>3788.085125861324</v>
       </c>
       <c r="P29" t="n">
-        <v>3787.946388857119</v>
+        <v>3837.134983752323</v>
       </c>
       <c r="Q29" t="n">
-        <v>3793.46850411397</v>
+        <v>3842.657099009175</v>
       </c>
       <c r="R29" t="n">
         <v>3842.657099009175</v>
@@ -6493,22 +6493,22 @@
         <v>3842.657099009175</v>
       </c>
       <c r="T29" t="n">
-        <v>3842.657099009175</v>
+        <v>3625.301546369134</v>
       </c>
       <c r="U29" t="n">
-        <v>3842.657099009175</v>
+        <v>3600.80948587748</v>
       </c>
       <c r="V29" t="n">
-        <v>3644.143805364331</v>
+        <v>3258.702676580999</v>
       </c>
       <c r="W29" t="n">
-        <v>3273.144770332618</v>
+        <v>2887.703641549286</v>
       </c>
       <c r="X29" t="n">
-        <v>2883.692165265675</v>
+        <v>2498.251036482343</v>
       </c>
       <c r="Y29" t="n">
-        <v>2487.201456186276</v>
+        <v>2101.760327402944</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>76.85314198018349</v>
       </c>
       <c r="J30" t="n">
-        <v>76.85314198018349</v>
+        <v>259.5174182571917</v>
       </c>
       <c r="K30" t="n">
-        <v>515.4631092348759</v>
+        <v>698.1273855118841</v>
       </c>
       <c r="L30" t="n">
-        <v>586.13985451027</v>
+        <v>1138.204651900966</v>
       </c>
       <c r="M30" t="n">
-        <v>1400.433147407417</v>
+        <v>1233.263044342613</v>
       </c>
       <c r="N30" t="n">
-        <v>1507.373071837157</v>
+        <v>1340.202968772352</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.040309292132</v>
+        <v>1423.589240336347</v>
       </c>
       <c r="P30" t="n">
-        <v>2253.398650627668</v>
+        <v>1969.781481559402</v>
       </c>
       <c r="Q30" t="n">
-        <v>2320.378774788579</v>
+        <v>2298.114478700992</v>
       </c>
       <c r="R30" t="n">
         <v>2320.378774788579</v>
@@ -6645,28 +6645,28 @@
         <v>1560.353319161307</v>
       </c>
       <c r="R31" t="n">
-        <v>1464.765377356326</v>
+        <v>1560.353319161307</v>
       </c>
       <c r="S31" t="n">
-        <v>1272.923032353513</v>
+        <v>1560.353319161307</v>
       </c>
       <c r="T31" t="n">
-        <v>1272.923032353513</v>
+        <v>1539.523004599014</v>
       </c>
       <c r="U31" t="n">
-        <v>1272.923032353513</v>
+        <v>1539.523004599014</v>
       </c>
       <c r="V31" t="n">
-        <v>1218.288560038136</v>
+        <v>1539.523004599014</v>
       </c>
       <c r="W31" t="n">
-        <v>1218.288560038136</v>
+        <v>1256.192602530191</v>
       </c>
       <c r="X31" t="n">
-        <v>1218.288560038136</v>
+        <v>1256.192602530191</v>
       </c>
       <c r="Y31" t="n">
-        <v>1218.288560038136</v>
+        <v>1033.080541346834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1674.947735614063</v>
+        <v>1725.044916666667</v>
       </c>
       <c r="C32" t="n">
-        <v>1281.772234116994</v>
+        <v>1725.044916666667</v>
       </c>
       <c r="D32" t="n">
-        <v>896.3311053336613</v>
+        <v>1339.603787883335</v>
       </c>
       <c r="E32" t="n">
-        <v>493.7475804502058</v>
+        <v>937.0202629998792</v>
       </c>
       <c r="F32" t="n">
-        <v>76.85314198018349</v>
+        <v>520.1258245298569</v>
       </c>
       <c r="G32" t="n">
-        <v>76.85314198018349</v>
+        <v>108.3668496690407</v>
       </c>
       <c r="H32" t="n">
         <v>76.85314198018349</v>
@@ -6703,22 +6703,22 @@
         <v>338.2760747840962</v>
       </c>
       <c r="K32" t="n">
-        <v>371.6609520004193</v>
+        <v>872.2711271753261</v>
       </c>
       <c r="L32" t="n">
-        <v>1082.099969239425</v>
+        <v>1582.710144414332</v>
       </c>
       <c r="M32" t="n">
-        <v>1869.687285725223</v>
+        <v>1676.068759773799</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.994106592743</v>
+        <v>2242.157259226097</v>
       </c>
       <c r="O32" t="n">
-        <v>3314.848181857571</v>
+        <v>2914.011334490925</v>
       </c>
       <c r="P32" t="n">
-        <v>3787.946388857119</v>
+        <v>3460.047117281962</v>
       </c>
       <c r="Q32" t="n">
         <v>3793.46850411397</v>
@@ -6727,25 +6727,25 @@
         <v>3842.657099009175</v>
       </c>
       <c r="S32" t="n">
-        <v>3842.657099009175</v>
+        <v>3708.132195539004</v>
       </c>
       <c r="T32" t="n">
-        <v>3625.301546369134</v>
+        <v>3490.776642898964</v>
       </c>
       <c r="U32" t="n">
-        <v>3574.491639799996</v>
+        <v>3235.136215785657</v>
       </c>
       <c r="V32" t="n">
-        <v>3232.384830503515</v>
+        <v>2893.029406489175</v>
       </c>
       <c r="W32" t="n">
-        <v>2861.385795471802</v>
+        <v>2522.030371457463</v>
       </c>
       <c r="X32" t="n">
-        <v>2471.933190404859</v>
+        <v>2522.030371457463</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.44248132546</v>
+        <v>2125.539662378064</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>76.85314198018349</v>
       </c>
       <c r="K33" t="n">
-        <v>107.0229971926495</v>
+        <v>515.4631092348759</v>
       </c>
       <c r="L33" t="n">
-        <v>177.6997424680435</v>
+        <v>1158.865683796932</v>
       </c>
       <c r="M33" t="n">
-        <v>991.993035365191</v>
+        <v>1253.92407623858</v>
       </c>
       <c r="N33" t="n">
-        <v>1098.93295979493</v>
+        <v>1360.864000668319</v>
       </c>
       <c r="O33" t="n">
-        <v>1790.600197249906</v>
+        <v>1445.853536423934</v>
       </c>
       <c r="P33" t="n">
-        <v>2316.489140826234</v>
+        <v>1992.045777646989</v>
       </c>
       <c r="Q33" t="n">
         <v>2320.378774788579</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.9422945965775</v>
+        <v>720.1957944190101</v>
       </c>
       <c r="C34" t="n">
-        <v>162.9422945965775</v>
+        <v>549.9906764849993</v>
       </c>
       <c r="D34" t="n">
-        <v>162.9422945965775</v>
+        <v>394.357563387514</v>
       </c>
       <c r="E34" t="n">
-        <v>76.85314198018349</v>
+        <v>394.357563387514</v>
       </c>
       <c r="F34" t="n">
-        <v>76.85314198018349</v>
+        <v>394.357563387514</v>
       </c>
       <c r="G34" t="n">
-        <v>76.85314198018349</v>
+        <v>226.7331971602043</v>
       </c>
       <c r="H34" t="n">
         <v>76.85314198018349</v>
@@ -6888,22 +6888,22 @@
         <v>1464.765377356326</v>
       </c>
       <c r="T34" t="n">
-        <v>1231.736809219333</v>
+        <v>1464.765377356326</v>
       </c>
       <c r="U34" t="n">
-        <v>946.3323640615926</v>
+        <v>1179.360932198585</v>
       </c>
       <c r="V34" t="n">
-        <v>680.3530188824168</v>
+        <v>1179.360932198585</v>
       </c>
       <c r="W34" t="n">
-        <v>397.0226168135944</v>
+        <v>1179.360932198585</v>
       </c>
       <c r="X34" t="n">
-        <v>162.9422945965775</v>
+        <v>945.2806099815685</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.9422945965775</v>
+        <v>722.1685487982119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1673.876222298346</v>
+        <v>573.6452251631972</v>
       </c>
       <c r="C35" t="n">
-        <v>1280.700720801276</v>
+        <v>180.4697236661278</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.700720801276</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="E35" t="n">
-        <v>878.117195917821</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="F35" t="n">
-        <v>461.2227574477988</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="G35" t="n">
         <v>49.46378258698261</v>
@@ -6940,25 +6940,25 @@
         <v>49.73390291914453</v>
       </c>
       <c r="K35" t="n">
-        <v>449.3393574417021</v>
+        <v>83.11878013546763</v>
       </c>
       <c r="L35" t="n">
-        <v>1061.453666955612</v>
+        <v>582.2742276595507</v>
       </c>
       <c r="M35" t="n">
-        <v>1673.567976469522</v>
+        <v>1194.38853717346</v>
       </c>
       <c r="N35" t="n">
-        <v>2285.682285983431</v>
+        <v>1806.50284668737</v>
       </c>
       <c r="O35" t="n">
-        <v>2369.428561306076</v>
+        <v>2418.61715620128</v>
       </c>
       <c r="P35" t="n">
-        <v>2418.478419197075</v>
+        <v>2467.667014092279</v>
       </c>
       <c r="Q35" t="n">
-        <v>2424.000534453926</v>
+        <v>2473.18912934913</v>
       </c>
       <c r="R35" t="n">
         <v>2473.18912934913</v>
@@ -6976,13 +6976,13 @@
         <v>2131.082320052649</v>
       </c>
       <c r="W35" t="n">
-        <v>2131.082320052649</v>
+        <v>1760.083285020936</v>
       </c>
       <c r="X35" t="n">
-        <v>1741.629714985706</v>
+        <v>1370.630679953993</v>
       </c>
       <c r="Y35" t="n">
-        <v>1741.629714985706</v>
+        <v>974.1399708745942</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>49.46378258698261</v>
       </c>
       <c r="J36" t="n">
-        <v>49.46378258698261</v>
+        <v>232.1280588639908</v>
       </c>
       <c r="K36" t="n">
-        <v>488.073749841675</v>
+        <v>670.7380261186833</v>
       </c>
       <c r="L36" t="n">
-        <v>1100.188059355585</v>
+        <v>1110.815292507765</v>
       </c>
       <c r="M36" t="n">
-        <v>1195.246451797232</v>
+        <v>1205.873684949413</v>
       </c>
       <c r="N36" t="n">
-        <v>1807.360761311142</v>
+        <v>1312.813609379152</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.298076918253</v>
+        <v>1396.199880943147</v>
       </c>
       <c r="P36" t="n">
-        <v>1964.656418253788</v>
+        <v>1942.392122166201</v>
       </c>
       <c r="Q36" t="n">
-        <v>2292.989415395378</v>
+        <v>2270.725119307791</v>
       </c>
       <c r="R36" t="n">
         <v>2292.989415395378</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.6889521680066</v>
+        <v>855.8111267736128</v>
       </c>
       <c r="C37" t="n">
-        <v>989.6889521680066</v>
+        <v>685.6060088396021</v>
       </c>
       <c r="D37" t="n">
-        <v>989.6889521680066</v>
+        <v>529.9728957421169</v>
       </c>
       <c r="E37" t="n">
-        <v>989.6889521680066</v>
+        <v>374.4140836013194</v>
       </c>
       <c r="F37" t="n">
-        <v>989.6889521680066</v>
+        <v>217.0881488142923</v>
       </c>
       <c r="G37" t="n">
-        <v>989.6889521680066</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="H37" t="n">
-        <v>989.6889521680066</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="I37" t="n">
-        <v>989.6889521680066</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="J37" t="n">
-        <v>1003.548201590855</v>
+        <v>63.32303200983138</v>
       </c>
       <c r="K37" t="n">
-        <v>1157.085652115643</v>
+        <v>216.8604825346193</v>
       </c>
       <c r="L37" t="n">
-        <v>1412.967689764904</v>
+        <v>472.7425201838803</v>
       </c>
       <c r="M37" t="n">
-        <v>1696.001415641524</v>
+        <v>755.7762460605004</v>
       </c>
       <c r="N37" t="n">
-        <v>1973.632885171959</v>
+        <v>1033.407715590935</v>
       </c>
       <c r="O37" t="n">
-        <v>2223.569973151228</v>
+        <v>1283.344803570204</v>
       </c>
       <c r="P37" t="n">
-        <v>2418.088459339005</v>
+        <v>1477.863289757981</v>
       </c>
       <c r="Q37" t="n">
-        <v>2473.18912934913</v>
+        <v>1532.963959768106</v>
       </c>
       <c r="R37" t="n">
-        <v>2377.601187544149</v>
+        <v>1532.963959768106</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.758842541336</v>
+        <v>1341.121614765294</v>
       </c>
       <c r="T37" t="n">
-        <v>1952.730274404344</v>
+        <v>1264.131206648271</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.325829246603</v>
+        <v>1264.131206648271</v>
       </c>
       <c r="V37" t="n">
-        <v>1401.346484067428</v>
+        <v>1264.131206648271</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.801013351363</v>
+        <v>1264.131206648271</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.801013351363</v>
+        <v>1264.131206648271</v>
       </c>
       <c r="Y37" t="n">
-        <v>989.6889521680066</v>
+        <v>1041.019145464914</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2072.694383637734</v>
+        <v>1420.563247445028</v>
       </c>
       <c r="C38" t="n">
-        <v>1679.518882140664</v>
+        <v>1254.382874723793</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.077753357332</v>
+        <v>868.9417459404604</v>
       </c>
       <c r="E38" t="n">
-        <v>891.4942284738763</v>
+        <v>466.3582210570049</v>
       </c>
       <c r="F38" t="n">
-        <v>855.1472026402978</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="G38" t="n">
-        <v>443.3882277794816</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="H38" t="n">
-        <v>133.681645939876</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="I38" t="n">
         <v>49.46378258698261</v>
@@ -7177,25 +7177,25 @@
         <v>49.73390291914453</v>
       </c>
       <c r="K38" t="n">
-        <v>83.11878013546763</v>
+        <v>583.7289553103744</v>
       </c>
       <c r="L38" t="n">
-        <v>695.2330896493775</v>
+        <v>649.1319927976643</v>
       </c>
       <c r="M38" t="n">
-        <v>788.5917050088448</v>
+        <v>834.5608245113187</v>
       </c>
       <c r="N38" t="n">
-        <v>1400.706014522755</v>
+        <v>932.429055316971</v>
       </c>
       <c r="O38" t="n">
-        <v>2012.820324036664</v>
+        <v>1544.543364830881</v>
       </c>
       <c r="P38" t="n">
-        <v>2467.667014092279</v>
+        <v>2090.579147621918</v>
       </c>
       <c r="Q38" t="n">
-        <v>2473.18912934913</v>
+        <v>2424.000534453926</v>
       </c>
       <c r="R38" t="n">
         <v>2473.18912934913</v>
@@ -7207,19 +7207,19 @@
         <v>2473.18912934913</v>
       </c>
       <c r="U38" t="n">
-        <v>2473.18912934913</v>
+        <v>2217.548702235823</v>
       </c>
       <c r="V38" t="n">
-        <v>2473.18912934913</v>
+        <v>2217.548702235823</v>
       </c>
       <c r="W38" t="n">
-        <v>2473.18912934913</v>
+        <v>2217.548702235823</v>
       </c>
       <c r="X38" t="n">
-        <v>2473.18912934913</v>
+        <v>2217.548702235823</v>
       </c>
       <c r="Y38" t="n">
-        <v>2473.18912934913</v>
+        <v>1821.057993156425</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>49.46378258698261</v>
       </c>
       <c r="J39" t="n">
-        <v>49.46378258698261</v>
+        <v>232.1280588639908</v>
       </c>
       <c r="K39" t="n">
-        <v>488.073749841675</v>
+        <v>670.7380261186833</v>
       </c>
       <c r="L39" t="n">
-        <v>1100.188059355585</v>
+        <v>1110.815292507765</v>
       </c>
       <c r="M39" t="n">
-        <v>1195.246451797232</v>
+        <v>1205.873684949413</v>
       </c>
       <c r="N39" t="n">
-        <v>1302.186376226971</v>
+        <v>1312.813609379152</v>
       </c>
       <c r="O39" t="n">
-        <v>1742.907540209979</v>
+        <v>1396.199880943147</v>
       </c>
       <c r="P39" t="n">
-        <v>2289.099781433033</v>
+        <v>1942.392122166201</v>
       </c>
       <c r="Q39" t="n">
-        <v>2292.989415395378</v>
+        <v>2270.725119307791</v>
       </c>
       <c r="R39" t="n">
         <v>2292.989415395378</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>372.1305443816982</v>
+        <v>794.0852515772597</v>
       </c>
       <c r="C40" t="n">
-        <v>201.9254264476874</v>
+        <v>794.0852515772597</v>
       </c>
       <c r="D40" t="n">
-        <v>201.9254264476874</v>
+        <v>638.4521384797745</v>
       </c>
       <c r="E40" t="n">
-        <v>201.9254264476874</v>
+        <v>638.4521384797745</v>
       </c>
       <c r="F40" t="n">
-        <v>201.9254264476874</v>
+        <v>481.1262036927474</v>
       </c>
       <c r="G40" t="n">
-        <v>49.46378258698261</v>
+        <v>313.5018374654377</v>
       </c>
       <c r="H40" t="n">
-        <v>49.46378258698261</v>
+        <v>163.6217822854169</v>
       </c>
       <c r="I40" t="n">
         <v>49.46378258698261</v>
@@ -7356,28 +7356,28 @@
         <v>1532.963959768106</v>
       </c>
       <c r="R40" t="n">
-        <v>1532.963959768106</v>
+        <v>1437.376017963125</v>
       </c>
       <c r="S40" t="n">
-        <v>1532.963959768106</v>
+        <v>1437.376017963125</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.935391631113</v>
+        <v>1204.347449826132</v>
       </c>
       <c r="U40" t="n">
-        <v>1014.530946473373</v>
+        <v>918.9430046683916</v>
       </c>
       <c r="V40" t="n">
-        <v>1014.530946473373</v>
+        <v>794.0852515772597</v>
       </c>
       <c r="W40" t="n">
-        <v>1014.530946473373</v>
+        <v>794.0852515772597</v>
       </c>
       <c r="X40" t="n">
-        <v>780.4506242563561</v>
+        <v>794.0852515772597</v>
       </c>
       <c r="Y40" t="n">
-        <v>557.3385630729995</v>
+        <v>794.0852515772597</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2059.317351081678</v>
+        <v>915.7520344596787</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.141849584609</v>
+        <v>522.5765329626092</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.700720801276</v>
+        <v>137.135404179277</v>
       </c>
       <c r="E41" t="n">
-        <v>878.117195917821</v>
+        <v>133.681645939876</v>
       </c>
       <c r="F41" t="n">
-        <v>461.2227574477988</v>
+        <v>133.681645939876</v>
       </c>
       <c r="G41" t="n">
-        <v>49.46378258698261</v>
+        <v>133.681645939876</v>
       </c>
       <c r="H41" t="n">
-        <v>49.46378258698261</v>
+        <v>133.681645939876</v>
       </c>
       <c r="I41" t="n">
         <v>49.46378258698261</v>
       </c>
       <c r="J41" t="n">
-        <v>49.73390291914453</v>
+        <v>310.8867153908953</v>
       </c>
       <c r="K41" t="n">
-        <v>170.6286807617496</v>
+        <v>844.8817677821253</v>
       </c>
       <c r="L41" t="n">
-        <v>782.7429902756594</v>
+        <v>1269.570243343117</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.857299789569</v>
+        <v>1362.928858702584</v>
       </c>
       <c r="N41" t="n">
-        <v>2006.971609303479</v>
+        <v>1460.797089508237</v>
       </c>
       <c r="O41" t="n">
-        <v>2090.717884626123</v>
+        <v>1544.543364830881</v>
       </c>
       <c r="P41" t="n">
-        <v>2139.767742517122</v>
+        <v>2090.579147621918</v>
       </c>
       <c r="Q41" t="n">
-        <v>2473.18912934913</v>
+        <v>2424.000534453926</v>
       </c>
       <c r="R41" t="n">
         <v>2473.18912934913</v>
@@ -7441,22 +7441,22 @@
         <v>2473.18912934913</v>
       </c>
       <c r="T41" t="n">
-        <v>2459.812096793075</v>
+        <v>2473.18912934913</v>
       </c>
       <c r="U41" t="n">
-        <v>2459.812096793075</v>
+        <v>2473.18912934913</v>
       </c>
       <c r="V41" t="n">
-        <v>2459.812096793075</v>
+        <v>2473.18912934913</v>
       </c>
       <c r="W41" t="n">
-        <v>2459.812096793075</v>
+        <v>2102.190094317418</v>
       </c>
       <c r="X41" t="n">
-        <v>2459.812096793075</v>
+        <v>1712.737489250474</v>
       </c>
       <c r="Y41" t="n">
-        <v>2459.812096793075</v>
+        <v>1316.246780171076</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>995.164595792402</v>
+        <v>814.9648818386496</v>
       </c>
       <c r="C42" t="n">
-        <v>844.5103653524942</v>
+        <v>664.3106513987418</v>
       </c>
       <c r="D42" t="n">
-        <v>714.4213979739745</v>
+        <v>534.2216840202221</v>
       </c>
       <c r="E42" t="n">
-        <v>577.9749070848623</v>
+        <v>397.7751931311099</v>
       </c>
       <c r="F42" t="n">
-        <v>453.5431009679941</v>
+        <v>273.3433870142417</v>
       </c>
       <c r="G42" t="n">
-        <v>334.2343719043086</v>
+        <v>154.0346579505562</v>
       </c>
       <c r="H42" t="n">
-        <v>253.1908926957828</v>
+        <v>72.99117874203043</v>
       </c>
       <c r="I42" t="n">
-        <v>229.663496540735</v>
+        <v>49.46378258698261</v>
       </c>
       <c r="J42" t="n">
-        <v>229.663496540735</v>
+        <v>232.1280588639908</v>
       </c>
       <c r="K42" t="n">
-        <v>259.833351753201</v>
+        <v>670.7380261186833</v>
       </c>
       <c r="L42" t="n">
-        <v>871.9476612671108</v>
+        <v>1110.815292507765</v>
       </c>
       <c r="M42" t="n">
-        <v>1484.061970781021</v>
+        <v>1205.873684949413</v>
       </c>
       <c r="N42" t="n">
-        <v>1591.00189521076</v>
+        <v>1312.813609379152</v>
       </c>
       <c r="O42" t="n">
-        <v>2203.11620472467</v>
+        <v>1396.199880943147</v>
       </c>
       <c r="P42" t="n">
-        <v>2469.299495386785</v>
+        <v>1942.392122166201</v>
       </c>
       <c r="Q42" t="n">
-        <v>2473.18912934913</v>
+        <v>2270.725119307791</v>
       </c>
       <c r="R42" t="n">
-        <v>2473.18912934913</v>
+        <v>2292.989415395378</v>
       </c>
       <c r="S42" t="n">
-        <v>2352.209598481219</v>
+        <v>2172.009884527467</v>
       </c>
       <c r="T42" t="n">
-        <v>2178.253201883766</v>
+        <v>1998.053487930014</v>
       </c>
       <c r="U42" t="n">
-        <v>1968.23947230349</v>
+        <v>1788.039758349738</v>
       </c>
       <c r="V42" t="n">
-        <v>1745.699470674557</v>
+        <v>1565.499756720805</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.582224807844</v>
+        <v>1335.382510854092</v>
       </c>
       <c r="X42" t="n">
-        <v>1326.275147157856</v>
+        <v>1146.075433204104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.960930233363</v>
+        <v>966.7612162796109</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>374.4140836013194</v>
+        <v>332.545441028004</v>
       </c>
       <c r="C43" t="n">
-        <v>374.4140836013194</v>
+        <v>332.545441028004</v>
       </c>
       <c r="D43" t="n">
-        <v>374.4140836013194</v>
+        <v>332.545441028004</v>
       </c>
       <c r="E43" t="n">
-        <v>374.4140836013194</v>
+        <v>332.545441028004</v>
       </c>
       <c r="F43" t="n">
-        <v>217.0881488142923</v>
+        <v>332.545441028004</v>
       </c>
       <c r="G43" t="n">
-        <v>49.46378258698261</v>
+        <v>164.9210748006943</v>
       </c>
       <c r="H43" t="n">
         <v>49.46378258698261</v>
@@ -7596,25 +7596,25 @@
         <v>1532.963959768106</v>
       </c>
       <c r="S43" t="n">
-        <v>1442.156844144051</v>
+        <v>1341.121614765294</v>
       </c>
       <c r="T43" t="n">
-        <v>1209.128276007058</v>
+        <v>1341.121614765294</v>
       </c>
       <c r="U43" t="n">
-        <v>923.7238308493176</v>
+        <v>1055.717169607553</v>
       </c>
       <c r="V43" t="n">
-        <v>657.7444856701418</v>
+        <v>789.7378244283776</v>
       </c>
       <c r="W43" t="n">
-        <v>374.4140836013194</v>
+        <v>789.7378244283776</v>
       </c>
       <c r="X43" t="n">
-        <v>374.4140836013194</v>
+        <v>555.6575022113607</v>
       </c>
       <c r="Y43" t="n">
-        <v>374.4140836013194</v>
+        <v>332.545441028004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1673.876222298346</v>
+        <v>1549.545969567806</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.700720801276</v>
+        <v>1156.370468070736</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.700720801276</v>
+        <v>770.9293392874043</v>
       </c>
       <c r="E44" t="n">
-        <v>878.117195917821</v>
+        <v>770.9293392874043</v>
       </c>
       <c r="F44" t="n">
-        <v>461.2227574477988</v>
+        <v>770.9293392874043</v>
       </c>
       <c r="G44" t="n">
-        <v>49.46378258698261</v>
+        <v>359.1703644265882</v>
       </c>
       <c r="H44" t="n">
-        <v>49.46378258698261</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="I44" t="n">
-        <v>49.46378258698261</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="J44" t="n">
-        <v>49.73390291914453</v>
+        <v>310.8867153908952</v>
       </c>
       <c r="K44" t="n">
-        <v>83.11878013546763</v>
+        <v>844.8817677821252</v>
       </c>
       <c r="L44" t="n">
-        <v>695.2330896493775</v>
+        <v>910.2848052694151</v>
       </c>
       <c r="M44" t="n">
-        <v>1307.347399163287</v>
+        <v>1003.643420628882</v>
       </c>
       <c r="N44" t="n">
-        <v>1919.461708677197</v>
+        <v>1101.511651434535</v>
       </c>
       <c r="O44" t="n">
-        <v>2418.61715620128</v>
+        <v>1544.54336483088</v>
       </c>
       <c r="P44" t="n">
-        <v>2467.667014092279</v>
+        <v>2090.579147621917</v>
       </c>
       <c r="Q44" t="n">
-        <v>2473.18912934913</v>
+        <v>2424.000534453925</v>
       </c>
       <c r="R44" t="n">
-        <v>2473.18912934913</v>
+        <v>2473.189129349129</v>
       </c>
       <c r="S44" t="n">
-        <v>2470.861677089142</v>
+        <v>2473.189129349129</v>
       </c>
       <c r="T44" t="n">
-        <v>2470.861677089142</v>
+        <v>2473.189129349129</v>
       </c>
       <c r="U44" t="n">
-        <v>2470.861677089142</v>
+        <v>2262.651813896</v>
       </c>
       <c r="V44" t="n">
-        <v>2470.861677089142</v>
+        <v>1920.545004599519</v>
       </c>
       <c r="W44" t="n">
-        <v>2470.861677089142</v>
+        <v>1549.545969567806</v>
       </c>
       <c r="X44" t="n">
-        <v>2470.861677089142</v>
+        <v>1549.545969567806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2074.370968009743</v>
+        <v>1549.545969567806</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>154.0346579505562</v>
       </c>
       <c r="H45" t="n">
-        <v>72.99117874203043</v>
+        <v>72.99117874203041</v>
       </c>
       <c r="I45" t="n">
-        <v>49.46378258698261</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="J45" t="n">
-        <v>232.1280588639908</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="K45" t="n">
-        <v>670.7380261186833</v>
+        <v>352.9437834651181</v>
       </c>
       <c r="L45" t="n">
-        <v>741.4147713940773</v>
+        <v>423.6205287405122</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.137981036999</v>
+        <v>518.6789211821597</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.077905466738</v>
+        <v>1130.793230696069</v>
       </c>
       <c r="O45" t="n">
-        <v>1418.464177030733</v>
+        <v>1742.907540209979</v>
       </c>
       <c r="P45" t="n">
-        <v>1964.656418253788</v>
+        <v>2289.099781433033</v>
       </c>
       <c r="Q45" t="n">
         <v>2292.989415395378</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>465.221199225375</v>
+        <v>532.6279484055057</v>
       </c>
       <c r="C46" t="n">
-        <v>331.2461485127266</v>
+        <v>362.4228304714949</v>
       </c>
       <c r="D46" t="n">
-        <v>331.2461485127266</v>
+        <v>206.7897173740096</v>
       </c>
       <c r="E46" t="n">
-        <v>331.2461485127266</v>
+        <v>206.7897173740096</v>
       </c>
       <c r="F46" t="n">
-        <v>331.2461485127266</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6217822854169</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="H46" t="n">
-        <v>163.6217822854169</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="I46" t="n">
-        <v>49.46378258698261</v>
+        <v>49.46378258698259</v>
       </c>
       <c r="J46" t="n">
-        <v>63.32303200983138</v>
+        <v>63.32303200983137</v>
       </c>
       <c r="K46" t="n">
         <v>216.8604825346193</v>
@@ -7839,19 +7839,19 @@
         <v>1299.935391631113</v>
       </c>
       <c r="U46" t="n">
-        <v>1014.530946473373</v>
+        <v>1217.895634493</v>
       </c>
       <c r="V46" t="n">
-        <v>748.5516012941973</v>
+        <v>951.9162893138239</v>
       </c>
       <c r="W46" t="n">
-        <v>465.221199225375</v>
+        <v>951.9162893138239</v>
       </c>
       <c r="X46" t="n">
-        <v>465.221199225375</v>
+        <v>717.8359670968069</v>
       </c>
       <c r="Y46" t="n">
-        <v>465.221199225375</v>
+        <v>717.8359670968069</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7987,19 +7987,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N2" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>267.3708664324162</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8060,19 +8060,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L3" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
         <v>317.0443399574658</v>
@@ -8221,22 +8221,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,19 +8297,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P6" t="n">
         <v>317.0443399574658</v>
@@ -8455,22 +8455,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O8" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>184.2583828371828</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8534,7 +8534,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
         <v>196.4724116665307</v>
@@ -8543,7 +8543,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>322.6485340270401</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>506.2642933235766</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>478.0263358769328</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>473.4711687595742</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>375.4932557136618</v>
+        <v>180.894670828233</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>52.83216561275709</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>12.19264515426178</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>500.937315759835</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.3078418665571</v>
       </c>
       <c r="O12" t="n">
-        <v>384.4244625936419</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>405.6259167205213</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>506.2642933235765</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>473.4711687595741</v>
+        <v>74.0557353892178</v>
       </c>
       <c r="O14" t="n">
-        <v>298.1672985904818</v>
+        <v>487.7357702575622</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>52.83216561275708</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>12.19264515426175</v>
+        <v>12.19264515426177</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9373157598349</v>
+        <v>500.937315759835</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>415.6161592213884</v>
+        <v>331.3800098827095</v>
       </c>
       <c r="O15" t="n">
-        <v>488.0994104178138</v>
+        <v>488.0994104178139</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>506.2642933235765</v>
+        <v>506.2642933235766</v>
       </c>
       <c r="M17" t="n">
-        <v>478.0263358769326</v>
+        <v>478.0263358769327</v>
       </c>
       <c r="N17" t="n">
-        <v>473.4711687595741</v>
+        <v>473.4711687595742</v>
       </c>
       <c r="O17" t="n">
-        <v>325.8078063245663</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>62.01708665613104</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>12.19264515426175</v>
+        <v>12.19264515426177</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>331.3800098827097</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9373157598349</v>
+        <v>500.937315759835</v>
       </c>
       <c r="M18" t="n">
-        <v>476.3093893292759</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>488.0994104178138</v>
+        <v>488.0994104178139</v>
       </c>
       <c r="P18" t="n">
-        <v>329.3833516644762</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>48.52461693840112</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>506.2642933235765</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>478.0263358769326</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>473.4711687595741</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>375.4932557136617</v>
+        <v>230.5801202173284</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>52.83216561275707</v>
+        <v>52.83216561275708</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>12.19264515426175</v>
+        <v>12.19264515426177</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.1700309712481</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9373157598349</v>
+        <v>500.937315759835</v>
       </c>
       <c r="M21" t="n">
         <v>476.3093893292759</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>488.0994104178138</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>351.8725396317357</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.6758585422613</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>342.9446517127165</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>48.52461693840112</v>
@@ -9886,13 +9886,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N26" t="n">
-        <v>416.3962085479067</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>236.1409912127245</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>373.1318395087753</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>476.2935376169622</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>48.52461693840112</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>14.70712017756377</v>
+        <v>566.3985543141722</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>52.83216561275707</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>373.1318395087753</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.72776787733949</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>48.52461693840112</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>472.9497663097434</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>428.3316657662108</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,25 +10430,25 @@
         <v>12.19264515426175</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>1.619458779414387</v>
       </c>
       <c r="P33" t="n">
-        <v>476.2935376169622</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>48.52461693840112</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>369.9197750568025</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>552.2336081076968</v>
+        <v>438.1337475119122</v>
       </c>
       <c r="M35" t="n">
         <v>523.995650661053</v>
@@ -10600,7 +10600,7 @@
         <v>519.4404835436945</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>533.7050850416825</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>52.83216561275707</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>546.9066305439553</v>
+        <v>373.1318395087754</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>510.2771566506774</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>19.74852933648044</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>48.52461693840112</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>552.2336081076968</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>93.00021853958296</v>
       </c>
       <c r="N38" t="n">
-        <v>519.4404835436944</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>533.7050850416825</v>
       </c>
       <c r="P38" t="n">
-        <v>409.8957900652682</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>52.83216561275707</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>546.9066305439553</v>
+        <v>373.1318395087754</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.9443357767804</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>48.52461693840112</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>88.39383901644644</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>552.2336081076968</v>
+        <v>362.9145839128304</v>
       </c>
       <c r="M41" t="n">
-        <v>523.995650661053</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>519.4404835436945</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>52.83216561275707</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>12.19264515426175</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>546.9066305439553</v>
+        <v>373.1318395087754</v>
       </c>
       <c r="M42" t="n">
-        <v>522.2787041133962</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>534.0687252019342</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>213.9645952793737</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>48.52461693840112</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>552.2336081076968</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>523.995650661053</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>519.4404835436944</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>419.6052244458979</v>
+        <v>362.9145839128296</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>52.83216561275707</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>12.19264515426175</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>276.0708542077471</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>395.621027476035</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>510.2771566506772</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>534.0687252019339</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>48.52461693840112</v>
@@ -23260,7 +23260,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>83.33516960700882</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H11" t="n">
-        <v>306.6095160212095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>83.3756847193645</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.1796544354688</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.1819971136397</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0840228421739</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>325.1568629166343</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>113.0164197014499</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>94.63206238693158</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9239215527843</v>
+        <v>0.2462561915226615</v>
       </c>
       <c r="T13" t="n">
         <v>230.6982824556229</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5504007061629</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>258.5728004684175</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>176.0935390768256</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>306.6095160212095</v>
       </c>
       <c r="I14" t="n">
-        <v>83.37568471936449</v>
+        <v>83.3756847193645</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>133.1796544354688</v>
       </c>
       <c r="T14" t="n">
-        <v>215.1819971136397</v>
+        <v>2.031789708366688</v>
       </c>
       <c r="U14" t="n">
         <v>253.0840228421739</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.3812546282206</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6591629789588</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>189.9239215527843</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9515311966562</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5504007061629</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>176.0935390768256</v>
+        <v>2.031789708366489</v>
       </c>
       <c r="H17" t="n">
         <v>306.6095160212095</v>
       </c>
       <c r="I17" t="n">
-        <v>83.37568471936449</v>
+        <v>83.3756847193645</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>133.1796544354688</v>
       </c>
       <c r="T17" t="n">
-        <v>215.1819971136397</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0840228421739</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.845909516332028</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S19" t="n">
         <v>189.9239215527843</v>
       </c>
       <c r="T19" t="n">
-        <v>230.6982824556229</v>
+        <v>41.02061709436123</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5504007061629</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>159.1225669377036</v>
+        <v>231.5755133495004</v>
       </c>
       <c r="H20" t="n">
-        <v>306.6095160212095</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>83.37568471936449</v>
+        <v>83.3756847193645</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.1796544354688</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.1819971136397</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0840228421739</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H22" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>113.0164197014499</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.63206238693158</v>
+        <v>86.64887585405245</v>
       </c>
       <c r="S22" t="n">
-        <v>189.9239215527843</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>12.95779248490999</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.1559033108406</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.1559033108407</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.3812546282206</v>
+        <v>17.27843082763181</v>
       </c>
       <c r="I25" t="n">
         <v>113.0164197014499</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.6982824556229</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>104.6956604625537</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>306.6095160212095</v>
       </c>
       <c r="I26" t="n">
-        <v>83.37568471936449</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>133.1796544354688</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0840228421739</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>225.5332652144854</v>
       </c>
       <c r="Y26" t="n">
-        <v>136.8887093420246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.31207997209526</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.9481225650366</v>
       </c>
       <c r="H28" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>113.0164197014499</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.9239215527843</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>222.4343230735703</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>133.1796544354688</v>
       </c>
       <c r="T29" t="n">
-        <v>215.1819971136397</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0840228421739</v>
+        <v>228.8368829554362</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1575804951212</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.9239215527843</v>
       </c>
       <c r="T31" t="n">
-        <v>230.6982824556229</v>
+        <v>210.0762710389523</v>
       </c>
       <c r="U31" t="n">
         <v>282.5504007061629</v>
       </c>
       <c r="V31" t="n">
-        <v>209.2314241351603</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.641385112208</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>306.6095160212095</v>
+        <v>275.4109454092409</v>
       </c>
       <c r="I32" t="n">
         <v>83.37568471936449</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.1796544354688</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>202.7822153387272</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>181.4029116689785</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.77496292915943</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>113.0164197014499</v>
@@ -25128,22 +25128,22 @@
         <v>189.9239215527843</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.6982824556229</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>329.413840493797</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>251.8908358271452</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H35" t="n">
         <v>306.6095160212095</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.9481225650366</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.3812546282206</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>94.63206238693158</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>154.4777784197701</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5504007061629</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>93.83708203923027</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>224.725177488076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>376.7419385100793</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>306.6095160212095</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>83.37568471936449</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>215.1819971136397</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0840228421739</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.01109514293884</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.3812546282206</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>113.0164197014499</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>94.63206238693158</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.9239215527843</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>139.7103761671634</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>395.138468977614</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.641385112208</v>
       </c>
       <c r="H41" t="n">
         <v>306.6095160212095</v>
       </c>
       <c r="I41" t="n">
-        <v>83.37568471936449</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>133.1796544354688</v>
       </c>
       <c r="T41" t="n">
-        <v>201.9387348831448</v>
+        <v>215.1819971136397</v>
       </c>
       <c r="U41" t="n">
         <v>253.0840228421739</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.3812546282206</v>
+        <v>34.07853533664597</v>
       </c>
       <c r="I43" t="n">
         <v>113.0164197014499</v>
@@ -25836,10 +25836,10 @@
         <v>94.63206238693158</v>
       </c>
       <c r="S43" t="n">
-        <v>100.0248770849693</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.6982824556229</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>306.6095160212095</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>83.37568471936449</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8754766980801</v>
+        <v>133.1796544354688</v>
       </c>
       <c r="T44" t="n">
         <v>215.1819971136397</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0840228421739</v>
+        <v>44.65208054357578</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>35.86776654914877</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.9481225650366</v>
       </c>
       <c r="H46" t="n">
         <v>148.3812546282206</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>113.0164197014499</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>201.3310411394304</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564282.8694190709</v>
+        <v>564282.869419071</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>564282.8694190711</v>
+        <v>564282.8694190714</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>564282.869419071</v>
+        <v>564282.8694190712</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813551.4119339676</v>
+        <v>813551.4119339675</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720841.9035057516</v>
+        <v>720841.9035057515</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>582815.5468607867</v>
+        <v>582815.5468607869</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>582815.5468607866</v>
+        <v>582815.5468607865</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582815.5468607867</v>
+        <v>582815.5468607869</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582815.5468607866</v>
+        <v>582815.5468607867</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="C2" t="n">
+        <v>504930.0986613991</v>
+      </c>
+      <c r="D2" t="n">
         <v>504930.0986613992</v>
       </c>
-      <c r="D2" t="n">
-        <v>504930.098661399</v>
-      </c>
       <c r="E2" t="n">
+        <v>331440.6985490514</v>
+      </c>
+      <c r="F2" t="n">
+        <v>331440.6985490513</v>
+      </c>
+      <c r="G2" t="n">
         <v>331440.6985490512</v>
       </c>
-      <c r="F2" t="n">
-        <v>331440.6985490512</v>
-      </c>
-      <c r="G2" t="n">
-        <v>331440.6985490511</v>
-      </c>
       <c r="H2" t="n">
-        <v>331440.6985490512</v>
+        <v>331440.6985490514</v>
       </c>
       <c r="I2" t="n">
-        <v>465140.1751074225</v>
+        <v>465140.1751074223</v>
       </c>
       <c r="J2" t="n">
         <v>415413.8332923672</v>
       </c>
       <c r="K2" t="n">
-        <v>415413.8332923673</v>
+        <v>415413.8332923672</v>
       </c>
       <c r="L2" t="n">
-        <v>415413.8332923672</v>
+        <v>415413.8332923671</v>
       </c>
       <c r="M2" t="n">
-        <v>341381.0193299392</v>
+        <v>341381.0193299393</v>
       </c>
       <c r="N2" t="n">
-        <v>341381.0193299392</v>
+        <v>341381.0193299394</v>
       </c>
       <c r="O2" t="n">
-        <v>341381.0193299392</v>
+        <v>341381.0193299394</v>
       </c>
       <c r="P2" t="n">
         <v>341381.0193299393</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.155921098776163e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>164418.2316164126</v>
+        <v>164418.2316164125</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>322568.5699589869</v>
       </c>
       <c r="E4" t="n">
-        <v>67590.47937042623</v>
+        <v>67590.47937042621</v>
       </c>
       <c r="F4" t="n">
         <v>67590.4793704262</v>
@@ -26444,7 +26444,7 @@
         <v>98373.40733396335</v>
       </c>
       <c r="K4" t="n">
-        <v>98373.40733396336</v>
+        <v>98373.40733396335</v>
       </c>
       <c r="L4" t="n">
         <v>98373.40733396335</v>
@@ -26456,10 +26456,10 @@
         <v>71234.40881843198</v>
       </c>
       <c r="O4" t="n">
+        <v>71234.40881843198</v>
+      </c>
+      <c r="P4" t="n">
         <v>71234.40881843197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>71234.40881843198</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>45128.70277703471</v>
       </c>
       <c r="P5" t="n">
-        <v>45128.70277703471</v>
+        <v>45128.7027770347</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57687.08954278991</v>
+        <v>57687.08954278997</v>
       </c>
       <c r="C6" t="n">
+        <v>134752.3014140126</v>
+      </c>
+      <c r="D6" t="n">
         <v>134752.3014140127</v>
       </c>
-      <c r="D6" t="n">
-        <v>134752.3014140125</v>
-      </c>
       <c r="E6" t="n">
-        <v>-158442.0393163993</v>
+        <v>-159061.6443168004</v>
       </c>
       <c r="F6" t="n">
-        <v>221516.4507404648</v>
+        <v>220896.8457400637</v>
       </c>
       <c r="G6" t="n">
-        <v>221516.4507404647</v>
+        <v>220896.8457400636</v>
       </c>
       <c r="H6" t="n">
-        <v>221516.4507404648</v>
+        <v>220896.8457400637</v>
       </c>
       <c r="I6" t="n">
-        <v>104193.5772729125</v>
+        <v>104051.4704030768</v>
       </c>
       <c r="J6" t="n">
-        <v>251095.8100425365</v>
+        <v>250776.1090947899</v>
       </c>
       <c r="K6" t="n">
-        <v>251095.8100425366</v>
+        <v>250776.1090947899</v>
       </c>
       <c r="L6" t="n">
-        <v>251095.8100425365</v>
+        <v>250776.1090947898</v>
       </c>
       <c r="M6" t="n">
-        <v>225017.9077344725</v>
+        <v>224433.8038797175</v>
       </c>
       <c r="N6" t="n">
-        <v>225017.9077344725</v>
+        <v>224433.8038797176</v>
       </c>
       <c r="O6" t="n">
-        <v>225017.9077344725</v>
+        <v>224433.8038797176</v>
       </c>
       <c r="P6" t="n">
-        <v>225017.9077344726</v>
+        <v>224433.8038797174</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>345.698532611373</v>
       </c>
       <c r="F3" t="n">
-        <v>345.6985326113731</v>
+        <v>345.698532611373</v>
       </c>
       <c r="G3" t="n">
-        <v>345.6985326113731</v>
+        <v>345.698532611373</v>
       </c>
       <c r="H3" t="n">
-        <v>345.6985326113731</v>
+        <v>345.698532611373</v>
       </c>
       <c r="I3" t="n">
         <v>345.6985326113731</v>
@@ -26831,7 +26831,7 @@
         <v>618.2972823372826</v>
       </c>
       <c r="P4" t="n">
-        <v>618.2972823372826</v>
+        <v>618.2972823372824</v>
       </c>
     </row>
   </sheetData>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>618.2972823372828</v>
+        <v>618.2972823372826</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,10 +27384,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>216.6500751711487</v>
       </c>
       <c r="E2" t="n">
-        <v>267.849252841606</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
         <v>182.7645189471708</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>66.28845523604882</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -27523,10 +27523,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>19.54581740778303</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>44.63187494449745</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>14.28168525016096</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>179.1660943854635</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27624,10 +27624,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>319.6300418696404</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>179.0701528187257</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27697,19 +27697,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>36.00255637295044</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.8147098941378701</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>74.06404792076461</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>142.1402833423869</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>217.7646847751363</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>244.0944856325267</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27937,10 +27937,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>58.58742686919535</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>145.1445337371234</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>138.6408082795801</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28079,7 +28079,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>20.21133839227124</v>
       </c>
     </row>
     <row r="11">
@@ -31761,7 +31761,7 @@
         <v>53.57806101909532</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9526867627116</v>
+        <v>117.9526867627117</v>
       </c>
       <c r="K11" t="n">
         <v>176.7805013775435</v>
@@ -31785,13 +31785,13 @@
         <v>150.0765926172318</v>
       </c>
       <c r="R11" t="n">
-        <v>87.29843396642879</v>
+        <v>87.2984339664288</v>
       </c>
       <c r="S11" t="n">
-        <v>31.66876507289111</v>
+        <v>31.66876507289112</v>
       </c>
       <c r="T11" t="n">
-        <v>6.083599302537828</v>
+        <v>6.083599302537829</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111794275735068</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7435779758055947</v>
+        <v>0.7435779758055948</v>
       </c>
       <c r="H12" t="n">
-        <v>7.181397818964561</v>
+        <v>7.181397818964562</v>
       </c>
       <c r="I12" t="n">
-        <v>25.60125925471017</v>
+        <v>25.60125925471018</v>
       </c>
       <c r="J12" t="n">
-        <v>70.25181217907156</v>
+        <v>70.25181217907158</v>
       </c>
       <c r="K12" t="n">
         <v>120.0715365580464</v>
@@ -31849,7 +31849,7 @@
         <v>161.4509986502455</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4057002731982</v>
+        <v>188.4057002731983</v>
       </c>
       <c r="N12" t="n">
         <v>193.3922385407718</v>
@@ -31861,10 +31861,10 @@
         <v>141.9907803097543</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.91707635020188</v>
+        <v>94.91707635020191</v>
       </c>
       <c r="R12" t="n">
-        <v>46.16706063817545</v>
+        <v>46.16706063817546</v>
       </c>
       <c r="S12" t="n">
         <v>13.81163476989777</v>
@@ -31873,7 +31873,7 @@
         <v>2.997141051602374</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04891960367142072</v>
+        <v>0.04891960367142073</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,37 +31913,37 @@
         <v>0.6233907965123119</v>
       </c>
       <c r="H13" t="n">
-        <v>5.542510899900376</v>
+        <v>5.542510899900377</v>
       </c>
       <c r="I13" t="n">
-        <v>18.74706140784298</v>
+        <v>18.74706140784299</v>
       </c>
       <c r="J13" t="n">
-        <v>44.07372931342044</v>
+        <v>44.07372931342045</v>
       </c>
       <c r="K13" t="n">
-        <v>72.42667617661222</v>
+        <v>72.42667617661223</v>
       </c>
       <c r="L13" t="n">
-        <v>92.68120987420318</v>
+        <v>92.68120987420319</v>
       </c>
       <c r="M13" t="n">
-        <v>97.71934094783447</v>
+        <v>97.71934094783448</v>
       </c>
       <c r="N13" t="n">
-        <v>95.39579343356138</v>
+        <v>95.39579343356141</v>
       </c>
       <c r="O13" t="n">
-        <v>88.11345549248571</v>
+        <v>88.11345549248573</v>
       </c>
       <c r="P13" t="n">
-        <v>75.39628324363449</v>
+        <v>75.3962832436345</v>
       </c>
       <c r="Q13" t="n">
         <v>52.20047842431732</v>
       </c>
       <c r="R13" t="n">
-        <v>28.02991708681721</v>
+        <v>28.02991708681722</v>
       </c>
       <c r="S13" t="n">
         <v>10.86400142649183</v>
@@ -31995,7 +31995,7 @@
         <v>14.23270390796471</v>
       </c>
       <c r="I14" t="n">
-        <v>53.57806101909533</v>
+        <v>53.57806101909532</v>
       </c>
       <c r="J14" t="n">
         <v>117.9526867627117</v>
@@ -32004,13 +32004,13 @@
         <v>176.7805013775435</v>
       </c>
       <c r="L14" t="n">
-        <v>219.3118439600775</v>
+        <v>219.3118439600774</v>
       </c>
       <c r="M14" t="n">
         <v>244.0266832739568</v>
       </c>
       <c r="N14" t="n">
-        <v>247.9752901313722</v>
+        <v>247.9752901313721</v>
       </c>
       <c r="O14" t="n">
         <v>234.1560347196964</v>
@@ -32022,13 +32022,13 @@
         <v>150.0765926172318</v>
       </c>
       <c r="R14" t="n">
-        <v>87.29843396642882</v>
+        <v>87.2984339664288</v>
       </c>
       <c r="S14" t="n">
         <v>31.66876507289112</v>
       </c>
       <c r="T14" t="n">
-        <v>6.083599302537831</v>
+        <v>6.083599302537829</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111794275735068</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7435779758055949</v>
+        <v>0.7435779758055948</v>
       </c>
       <c r="H15" t="n">
-        <v>7.181397818964563</v>
+        <v>7.181397818964562</v>
       </c>
       <c r="I15" t="n">
         <v>25.60125925471018</v>
       </c>
       <c r="J15" t="n">
-        <v>70.25181217907159</v>
+        <v>70.25181217907158</v>
       </c>
       <c r="K15" t="n">
         <v>120.0715365580464</v>
@@ -32095,10 +32095,10 @@
         <v>176.9161160242373</v>
       </c>
       <c r="P15" t="n">
-        <v>141.9907803097544</v>
+        <v>141.9907803097543</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.91707635020192</v>
+        <v>94.91707635020191</v>
       </c>
       <c r="R15" t="n">
         <v>46.16706063817546</v>
@@ -32107,10 +32107,10 @@
         <v>13.81163476989777</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997141051602375</v>
+        <v>2.997141051602374</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04891960367142074</v>
+        <v>0.04891960367142073</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.623390796512312</v>
+        <v>0.6233907965123119</v>
       </c>
       <c r="H16" t="n">
-        <v>5.542510899900378</v>
+        <v>5.542510899900377</v>
       </c>
       <c r="I16" t="n">
         <v>18.74706140784299</v>
       </c>
       <c r="J16" t="n">
-        <v>44.07372931342046</v>
+        <v>44.07372931342045</v>
       </c>
       <c r="K16" t="n">
         <v>72.42667617661223</v>
       </c>
       <c r="L16" t="n">
-        <v>92.6812098742032</v>
+        <v>92.68120987420319</v>
       </c>
       <c r="M16" t="n">
-        <v>97.7193409478345</v>
+        <v>97.71934094783448</v>
       </c>
       <c r="N16" t="n">
-        <v>95.39579343356142</v>
+        <v>95.39579343356141</v>
       </c>
       <c r="O16" t="n">
-        <v>88.11345549248574</v>
+        <v>88.11345549248573</v>
       </c>
       <c r="P16" t="n">
-        <v>75.39628324363451</v>
+        <v>75.3962832436345</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20047842431733</v>
+        <v>52.20047842431732</v>
       </c>
       <c r="R16" t="n">
         <v>28.02991708681722</v>
@@ -32186,10 +32186,10 @@
         <v>10.86400142649183</v>
       </c>
       <c r="T16" t="n">
-        <v>2.663578857825333</v>
+        <v>2.663578857825332</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03400313435521706</v>
+        <v>0.03400313435521705</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>14.23270390796471</v>
       </c>
       <c r="I17" t="n">
-        <v>53.57806101909533</v>
+        <v>53.57806101909532</v>
       </c>
       <c r="J17" t="n">
         <v>117.9526867627117</v>
@@ -32241,13 +32241,13 @@
         <v>176.7805013775435</v>
       </c>
       <c r="L17" t="n">
-        <v>219.3118439600775</v>
+        <v>219.3118439600774</v>
       </c>
       <c r="M17" t="n">
         <v>244.0266832739568</v>
       </c>
       <c r="N17" t="n">
-        <v>247.9752901313722</v>
+        <v>247.9752901313721</v>
       </c>
       <c r="O17" t="n">
         <v>234.1560347196964</v>
@@ -32259,13 +32259,13 @@
         <v>150.0765926172318</v>
       </c>
       <c r="R17" t="n">
-        <v>87.29843396642882</v>
+        <v>87.2984339664288</v>
       </c>
       <c r="S17" t="n">
         <v>31.66876507289112</v>
       </c>
       <c r="T17" t="n">
-        <v>6.083599302537831</v>
+        <v>6.083599302537829</v>
       </c>
       <c r="U17" t="n">
         <v>0.1111794275735068</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7435779758055949</v>
+        <v>0.7435779758055948</v>
       </c>
       <c r="H18" t="n">
-        <v>7.181397818964563</v>
+        <v>7.181397818964562</v>
       </c>
       <c r="I18" t="n">
         <v>25.60125925471018</v>
       </c>
       <c r="J18" t="n">
-        <v>70.25181217907159</v>
+        <v>70.25181217907158</v>
       </c>
       <c r="K18" t="n">
         <v>120.0715365580464</v>
@@ -32332,10 +32332,10 @@
         <v>176.9161160242373</v>
       </c>
       <c r="P18" t="n">
-        <v>141.9907803097544</v>
+        <v>141.9907803097543</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.91707635020192</v>
+        <v>94.91707635020191</v>
       </c>
       <c r="R18" t="n">
         <v>46.16706063817546</v>
@@ -32344,10 +32344,10 @@
         <v>13.81163476989777</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997141051602375</v>
+        <v>2.997141051602374</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04891960367142074</v>
+        <v>0.04891960367142073</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.623390796512312</v>
+        <v>0.6233907965123119</v>
       </c>
       <c r="H19" t="n">
-        <v>5.542510899900378</v>
+        <v>5.542510899900377</v>
       </c>
       <c r="I19" t="n">
         <v>18.74706140784299</v>
       </c>
       <c r="J19" t="n">
-        <v>44.07372931342046</v>
+        <v>44.07372931342045</v>
       </c>
       <c r="K19" t="n">
         <v>72.42667617661223</v>
       </c>
       <c r="L19" t="n">
-        <v>92.6812098742032</v>
+        <v>92.68120987420319</v>
       </c>
       <c r="M19" t="n">
-        <v>97.7193409478345</v>
+        <v>97.71934094783448</v>
       </c>
       <c r="N19" t="n">
-        <v>95.39579343356142</v>
+        <v>95.39579343356141</v>
       </c>
       <c r="O19" t="n">
-        <v>88.11345549248574</v>
+        <v>88.11345549248573</v>
       </c>
       <c r="P19" t="n">
-        <v>75.39628324363451</v>
+        <v>75.3962832436345</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20047842431733</v>
+        <v>52.20047842431732</v>
       </c>
       <c r="R19" t="n">
         <v>28.02991708681722</v>
@@ -32423,10 +32423,10 @@
         <v>10.86400142649183</v>
       </c>
       <c r="T19" t="n">
-        <v>2.663578857825333</v>
+        <v>2.663578857825332</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400313435521706</v>
+        <v>0.03400313435521705</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>14.23270390796471</v>
       </c>
       <c r="I20" t="n">
-        <v>53.57806101909533</v>
+        <v>53.57806101909532</v>
       </c>
       <c r="J20" t="n">
         <v>117.9526867627117</v>
@@ -32478,13 +32478,13 @@
         <v>176.7805013775435</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3118439600775</v>
+        <v>219.3118439600774</v>
       </c>
       <c r="M20" t="n">
         <v>244.0266832739568</v>
       </c>
       <c r="N20" t="n">
-        <v>247.9752901313722</v>
+        <v>247.9752901313721</v>
       </c>
       <c r="O20" t="n">
         <v>234.1560347196964</v>
@@ -32496,13 +32496,13 @@
         <v>150.0765926172318</v>
       </c>
       <c r="R20" t="n">
-        <v>87.29843396642882</v>
+        <v>87.2984339664288</v>
       </c>
       <c r="S20" t="n">
         <v>31.66876507289112</v>
       </c>
       <c r="T20" t="n">
-        <v>6.083599302537831</v>
+        <v>6.083599302537829</v>
       </c>
       <c r="U20" t="n">
         <v>0.1111794275735068</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7435779758055949</v>
+        <v>0.7435779758055948</v>
       </c>
       <c r="H21" t="n">
-        <v>7.181397818964563</v>
+        <v>7.181397818964562</v>
       </c>
       <c r="I21" t="n">
         <v>25.60125925471018</v>
       </c>
       <c r="J21" t="n">
-        <v>70.25181217907159</v>
+        <v>70.25181217907158</v>
       </c>
       <c r="K21" t="n">
         <v>120.0715365580464</v>
@@ -32569,10 +32569,10 @@
         <v>176.9161160242373</v>
       </c>
       <c r="P21" t="n">
-        <v>141.9907803097544</v>
+        <v>141.9907803097543</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.91707635020192</v>
+        <v>94.91707635020191</v>
       </c>
       <c r="R21" t="n">
         <v>46.16706063817546</v>
@@ -32581,10 +32581,10 @@
         <v>13.81163476989777</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997141051602375</v>
+        <v>2.997141051602374</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04891960367142074</v>
+        <v>0.04891960367142073</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.623390796512312</v>
+        <v>0.6233907965123119</v>
       </c>
       <c r="H22" t="n">
-        <v>5.542510899900378</v>
+        <v>5.542510899900377</v>
       </c>
       <c r="I22" t="n">
         <v>18.74706140784299</v>
       </c>
       <c r="J22" t="n">
-        <v>44.07372931342046</v>
+        <v>44.07372931342045</v>
       </c>
       <c r="K22" t="n">
         <v>72.42667617661223</v>
       </c>
       <c r="L22" t="n">
-        <v>92.6812098742032</v>
+        <v>92.68120987420319</v>
       </c>
       <c r="M22" t="n">
-        <v>97.7193409478345</v>
+        <v>97.71934094783448</v>
       </c>
       <c r="N22" t="n">
-        <v>95.39579343356142</v>
+        <v>95.39579343356141</v>
       </c>
       <c r="O22" t="n">
-        <v>88.11345549248574</v>
+        <v>88.11345549248573</v>
       </c>
       <c r="P22" t="n">
-        <v>75.39628324363451</v>
+        <v>75.3962832436345</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20047842431733</v>
+        <v>52.20047842431732</v>
       </c>
       <c r="R22" t="n">
         <v>28.02991708681722</v>
@@ -32660,10 +32660,10 @@
         <v>10.86400142649183</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663578857825333</v>
+        <v>2.663578857825332</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400313435521706</v>
+        <v>0.03400313435521705</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O2" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L3" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P3" t="n">
         <v>229.9609751381512</v>
@@ -34941,22 +34941,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74.55874088122788</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P6" t="n">
         <v>229.9609751381512</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>33.95693559625762</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35254,16 +35254,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
-        <v>106.4120648096124</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>229.9609751381512</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2728488203655388</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K11" t="n">
-        <v>33.7220981983061</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L11" t="n">
-        <v>572.3279675531622</v>
+        <v>66.0636742295857</v>
       </c>
       <c r="M11" t="n">
-        <v>572.3279675531622</v>
+        <v>94.30163167622953</v>
       </c>
       <c r="N11" t="n">
-        <v>572.3279675531622</v>
+        <v>98.85679879358804</v>
       </c>
       <c r="O11" t="n">
-        <v>460.0854530092618</v>
+        <v>265.486868123833</v>
       </c>
       <c r="P11" t="n">
-        <v>49.54531100100925</v>
+        <v>551.5512957485222</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.577894198839601</v>
+        <v>336.789279628291</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>49.68544938909552</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K12" t="n">
         <v>443.0403709643358</v>
       </c>
       <c r="L12" t="n">
+        <v>71.39065179332728</v>
+      </c>
+      <c r="M12" t="n">
+        <v>96.01857822388637</v>
+      </c>
+      <c r="N12" t="n">
         <v>572.3279675531622</v>
       </c>
-      <c r="M12" t="n">
-        <v>96.01857822388634</v>
-      </c>
-      <c r="N12" t="n">
-        <v>108.0201256866051</v>
-      </c>
       <c r="O12" t="n">
-        <v>468.6530197289902</v>
+        <v>84.2285571353484</v>
       </c>
       <c r="P12" t="n">
-        <v>551.7093345687416</v>
+        <v>460.533332210961</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.92892319428789</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R12" t="n">
         <v>22.48918796725935</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.99924184126137</v>
+        <v>13.99924184126138</v>
       </c>
       <c r="K13" t="n">
         <v>155.0883338634222</v>
       </c>
       <c r="L13" t="n">
-        <v>258.4667046962231</v>
+        <v>258.4667046962232</v>
       </c>
       <c r="M13" t="n">
         <v>285.8926524006264</v>
@@ -35588,7 +35588,7 @@
         <v>196.4833193815927</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.6572424344698</v>
+        <v>55.65724243446981</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2728488203655814</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K14" t="n">
         <v>539.3889418093231</v>
       </c>
       <c r="L14" t="n">
+        <v>66.0636742295857</v>
+      </c>
+      <c r="M14" t="n">
+        <v>94.30163167622953</v>
+      </c>
+      <c r="N14" t="n">
+        <v>172.9125341828058</v>
+      </c>
+      <c r="O14" t="n">
         <v>572.3279675531622</v>
       </c>
-      <c r="M14" t="n">
-        <v>94.30163167622956</v>
-      </c>
-      <c r="N14" t="n">
-        <v>572.3279675531622</v>
-      </c>
-      <c r="O14" t="n">
-        <v>382.7594958860818</v>
-      </c>
       <c r="P14" t="n">
-        <v>49.54531100100934</v>
+        <v>551.5512957485222</v>
       </c>
       <c r="Q14" t="n">
         <v>5.57789419883963</v>
       </c>
       <c r="R14" t="n">
-        <v>49.68544938909554</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>443.0403709643358</v>
+        <v>30.47460122471308</v>
       </c>
       <c r="L15" t="n">
         <v>572.3279675531622</v>
       </c>
       <c r="M15" t="n">
-        <v>96.01857822388639</v>
+        <v>96.01857822388637</v>
       </c>
       <c r="N15" t="n">
-        <v>523.6362849079936</v>
+        <v>439.4001355693147</v>
       </c>
       <c r="O15" t="n">
         <v>572.3279675531622</v>
       </c>
       <c r="P15" t="n">
-        <v>54.90741549043972</v>
+        <v>551.7093345687416</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.928923194287933</v>
+        <v>3.928923194287918</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.99924184126139</v>
+        <v>13.99924184126138</v>
       </c>
       <c r="K16" t="n">
         <v>155.0883338634222</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2728488203655814</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K17" t="n">
-        <v>33.72209819830616</v>
+        <v>33.72209819830613</v>
       </c>
       <c r="L17" t="n">
         <v>572.3279675531622</v>
@@ -35898,16 +35898,16 @@
         <v>572.3279675531622</v>
       </c>
       <c r="O17" t="n">
-        <v>410.4000036201663</v>
+        <v>84.59219729560002</v>
       </c>
       <c r="P17" t="n">
-        <v>49.54531100100934</v>
+        <v>49.54531100100928</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.57789419883963</v>
+        <v>67.59498085497067</v>
       </c>
       <c r="R17" t="n">
-        <v>49.68544938909554</v>
+        <v>49.68544938909552</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>30.4746012247131</v>
+        <v>361.8546111074227</v>
       </c>
       <c r="L18" t="n">
         <v>572.3279675531622</v>
       </c>
       <c r="M18" t="n">
-        <v>572.3279675531622</v>
+        <v>96.01857822388637</v>
       </c>
       <c r="N18" t="n">
-        <v>108.0201256866052</v>
+        <v>108.0201256866051</v>
       </c>
       <c r="O18" t="n">
         <v>572.3279675531622</v>
       </c>
       <c r="P18" t="n">
-        <v>384.2907671549159</v>
+        <v>551.7093345687416</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.928923194287933</v>
+        <v>3.928923194287918</v>
       </c>
       <c r="R18" t="n">
-        <v>22.48918796725936</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.99924184126139</v>
+        <v>13.99924184126138</v>
       </c>
       <c r="K19" t="n">
         <v>155.0883338634222</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2728488203655814</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K20" t="n">
-        <v>33.72209819830616</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L20" t="n">
-        <v>572.3279675531622</v>
+        <v>66.0636742295857</v>
       </c>
       <c r="M20" t="n">
-        <v>572.3279675531622</v>
+        <v>94.30163167622953</v>
       </c>
       <c r="N20" t="n">
-        <v>572.3279675531622</v>
+        <v>98.85679879358804</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0854530092618</v>
+        <v>315.1723175129284</v>
       </c>
       <c r="P20" t="n">
-        <v>49.54531100100934</v>
+        <v>551.5512957485222</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.57789419883963</v>
+        <v>336.789279628291</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>30.4746012247131</v>
+        <v>373.6446321959612</v>
       </c>
       <c r="L21" t="n">
         <v>572.3279675531622</v>
@@ -36211,16 +36211,16 @@
         <v>572.3279675531622</v>
       </c>
       <c r="N21" t="n">
-        <v>108.0201256866052</v>
+        <v>108.0201256866051</v>
       </c>
       <c r="O21" t="n">
-        <v>572.3279675531622</v>
+        <v>84.2285571353484</v>
       </c>
       <c r="P21" t="n">
-        <v>406.7799551221754</v>
+        <v>551.7093345687416</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.928923194287933</v>
+        <v>3.928923194287918</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.99924184126139</v>
+        <v>13.99924184126138</v>
       </c>
       <c r="K22" t="n">
         <v>155.0883338634222</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K24" t="n">
-        <v>30.4746012247131</v>
+        <v>260.1504597669744</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39065179332731</v>
+        <v>649.9015904667235</v>
       </c>
       <c r="M24" t="n">
-        <v>822.5184776738863</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N24" t="n">
-        <v>855.7942296625487</v>
+        <v>108.0201256866052</v>
       </c>
       <c r="O24" t="n">
-        <v>427.1732088480649</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P24" t="n">
-        <v>54.90741549043972</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.928923194287933</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>795.5427439250483</v>
       </c>
       <c r="N26" t="n">
-        <v>515.2530073414948</v>
+        <v>781.1180008762833</v>
       </c>
       <c r="O26" t="n">
         <v>678.6404800654827</v>
       </c>
       <c r="P26" t="n">
-        <v>551.5512957485223</v>
+        <v>285.6863022137339</v>
       </c>
       <c r="Q26" t="n">
         <v>5.57789419883963</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K27" t="n">
-        <v>30.4746012247131</v>
+        <v>443.0403709643358</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39065179332731</v>
+        <v>444.5224913021027</v>
       </c>
       <c r="M27" t="n">
-        <v>822.5184776738863</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N27" t="n">
         <v>108.0201256866052</v>
       </c>
       <c r="O27" t="n">
-        <v>698.6537752070465</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P27" t="n">
-        <v>531.2009531074019</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.928923194287933</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.48918796725936</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>781.1180008762833</v>
       </c>
       <c r="O29" t="n">
-        <v>99.29931747316381</v>
+        <v>650.9907516097722</v>
       </c>
       <c r="P29" t="n">
-        <v>551.5512957485223</v>
+        <v>49.54531100100934</v>
       </c>
       <c r="Q29" t="n">
         <v>5.57789419883963</v>
       </c>
       <c r="R29" t="n">
-        <v>49.68544938909554</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K30" t="n">
         <v>443.0403709643358</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39065179332731</v>
+        <v>444.5224913021027</v>
       </c>
       <c r="M30" t="n">
-        <v>822.5184776738863</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N30" t="n">
         <v>108.0201256866052</v>
       </c>
       <c r="O30" t="n">
-        <v>698.6537752070465</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P30" t="n">
-        <v>54.90741549043972</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q30" t="n">
-        <v>67.65669107162742</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.48918796725936</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>264.0635684888007</v>
       </c>
       <c r="K32" t="n">
-        <v>33.72209819830616</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L32" t="n">
         <v>717.6151689282884</v>
       </c>
       <c r="M32" t="n">
-        <v>795.5427439250483</v>
+        <v>94.30163167622956</v>
       </c>
       <c r="N32" t="n">
-        <v>781.1180008762833</v>
+        <v>571.8065651033315</v>
       </c>
       <c r="O32" t="n">
         <v>678.6404800654827</v>
       </c>
       <c r="P32" t="n">
-        <v>477.8769767672202</v>
+        <v>551.5512957485223</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.57789419883963</v>
+        <v>336.789279628291</v>
       </c>
       <c r="R32" t="n">
         <v>49.68544938909554</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>30.4746012247131</v>
+        <v>443.0403709643358</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39065179332731</v>
+        <v>649.9015904667235</v>
       </c>
       <c r="M33" t="n">
-        <v>822.5184776738863</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N33" t="n">
         <v>108.0201256866052</v>
       </c>
       <c r="O33" t="n">
-        <v>698.6537752070465</v>
+        <v>85.84801591476281</v>
       </c>
       <c r="P33" t="n">
-        <v>531.2009531074019</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.928923194287933</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0.2728488203655814</v>
       </c>
       <c r="K35" t="n">
-        <v>403.6418732551086</v>
+        <v>33.72209819830616</v>
       </c>
       <c r="L35" t="n">
-        <v>618.2972823372826</v>
+        <v>504.197421741498</v>
       </c>
       <c r="M35" t="n">
         <v>618.2972823372826</v>
@@ -37320,7 +37320,7 @@
         <v>618.2972823372826</v>
       </c>
       <c r="O35" t="n">
-        <v>84.59219729560004</v>
+        <v>618.2972823372826</v>
       </c>
       <c r="P35" t="n">
         <v>49.54531100100934</v>
@@ -37329,7 +37329,7 @@
         <v>5.57789419883963</v>
       </c>
       <c r="R35" t="n">
-        <v>49.68544938909554</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K36" t="n">
         <v>443.0403709643358</v>
       </c>
       <c r="L36" t="n">
-        <v>618.2972823372826</v>
+        <v>444.5224913021028</v>
       </c>
       <c r="M36" t="n">
         <v>96.01857822388639</v>
       </c>
       <c r="N36" t="n">
-        <v>618.2972823372826</v>
+        <v>108.0201256866052</v>
       </c>
       <c r="O36" t="n">
-        <v>103.9770864718289</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P36" t="n">
-        <v>54.90741549043972</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q36" t="n">
         <v>331.6494920622125</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.48918796725936</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>0.2728488203655814</v>
       </c>
       <c r="K38" t="n">
-        <v>33.72209819830616</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L38" t="n">
-        <v>618.2972823372826</v>
+        <v>66.06367422958576</v>
       </c>
       <c r="M38" t="n">
-        <v>94.30163167622956</v>
+        <v>187.3018502158125</v>
       </c>
       <c r="N38" t="n">
-        <v>618.2972823372826</v>
+        <v>98.8567987935881</v>
       </c>
       <c r="O38" t="n">
         <v>618.2972823372826</v>
       </c>
       <c r="P38" t="n">
-        <v>459.4411010662776</v>
+        <v>551.5512957485223</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.57789419883963</v>
+        <v>336.789279628291</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>49.68544938909554</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K39" t="n">
         <v>443.0403709643358</v>
       </c>
       <c r="L39" t="n">
-        <v>618.2972823372826</v>
+        <v>444.5224913021028</v>
       </c>
       <c r="M39" t="n">
         <v>96.01857822388639</v>
@@ -37636,16 +37636,16 @@
         <v>108.0201256866052</v>
       </c>
       <c r="O39" t="n">
-        <v>445.1728929121288</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P39" t="n">
         <v>551.7093345687417</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.928923194287933</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.48918796725936</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2728488203655814</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K41" t="n">
-        <v>122.1159372147526</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L41" t="n">
-        <v>618.2972823372826</v>
+        <v>428.9782581424161</v>
       </c>
       <c r="M41" t="n">
-        <v>618.2972823372826</v>
+        <v>94.30163167622956</v>
       </c>
       <c r="N41" t="n">
-        <v>618.2972823372826</v>
+        <v>98.8567987935881</v>
       </c>
       <c r="O41" t="n">
         <v>84.59219729560004</v>
       </c>
       <c r="P41" t="n">
-        <v>49.54531100100934</v>
+        <v>551.5512957485223</v>
       </c>
       <c r="Q41" t="n">
         <v>336.789279628291</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>49.68544938909554</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>184.509369976776</v>
       </c>
       <c r="K42" t="n">
-        <v>30.4746012247131</v>
+        <v>443.0403709643358</v>
       </c>
       <c r="L42" t="n">
-        <v>618.2972823372826</v>
+        <v>444.5224913021028</v>
       </c>
       <c r="M42" t="n">
-        <v>618.2972823372826</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N42" t="n">
         <v>108.0201256866052</v>
       </c>
       <c r="O42" t="n">
-        <v>618.2972823372826</v>
+        <v>84.22855713534842</v>
       </c>
       <c r="P42" t="n">
-        <v>268.8720107698134</v>
+        <v>551.7093345687417</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.928923194287933</v>
+        <v>331.6494920622125</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.48918796725936</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2728488203655814</v>
+        <v>264.0635684888007</v>
       </c>
       <c r="K44" t="n">
-        <v>33.72209819830616</v>
+        <v>539.3889418093231</v>
       </c>
       <c r="L44" t="n">
-        <v>618.2972823372826</v>
+        <v>66.06367422958576</v>
       </c>
       <c r="M44" t="n">
-        <v>618.2972823372826</v>
+        <v>94.30163167622956</v>
       </c>
       <c r="N44" t="n">
-        <v>618.2972823372826</v>
+        <v>98.8567987935881</v>
       </c>
       <c r="O44" t="n">
-        <v>504.197421741498</v>
+        <v>447.5067812084297</v>
       </c>
       <c r="P44" t="n">
-        <v>49.54531100100934</v>
+        <v>551.5512957485223</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.57789419883963</v>
+        <v>336.789279628291</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>49.68544938909554</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>184.509369976776</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>443.0403709643358</v>
+        <v>306.5454554324602</v>
       </c>
       <c r="L45" t="n">
         <v>71.39065179332731</v>
       </c>
       <c r="M45" t="n">
-        <v>491.6396056999213</v>
+        <v>96.01857822388639</v>
       </c>
       <c r="N45" t="n">
-        <v>108.0201256866052</v>
+        <v>618.2972823372824</v>
       </c>
       <c r="O45" t="n">
-        <v>84.22855713534842</v>
+        <v>618.2972823372824</v>
       </c>
       <c r="P45" t="n">
         <v>551.7093345687417</v>
       </c>
       <c r="Q45" t="n">
-        <v>331.6494920622125</v>
+        <v>3.928923194287933</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
